--- a/data/Alumark S70.xlsx
+++ b/data/Alumark S70.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097BBB20-7376-4E79-9999-D5796C678DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5F5E26-C9C1-4430-BCE6-D76B8873F823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="982" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="982" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alumark до 2400 белый" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6401" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6401" uniqueCount="459">
   <si>
     <t>наименование</t>
   </si>
@@ -1412,6 +1412,12 @@
   <si>
     <t>2-ст ру</t>
   </si>
+  <si>
+    <t>Петля на раму ALU10MM S25 R06.2 чёрный PATIO FOLD</t>
+  </si>
+  <si>
+    <t>убрать из комплектов Alumark S70 чёрный</t>
+  </si>
 </sst>
 </file>
 
@@ -1866,7 +1872,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2090,6 +2096,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2112,51 +2163,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2297,6 +2303,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16533,7 +16540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:E357"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -19989,7 +19996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A5:F383"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -23683,7 +23690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A5:F369"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -27234,7 +27241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A5:F383"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -30929,7 +30936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A5:F370"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -34530,7 +34537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A5:F383"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -38224,7 +38231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A5:F370"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -41775,7 +41782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A5:J383"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -45870,35 +45877,35 @@
   <sheetData>
     <row r="1" spans="1:5" ht="9" customHeight="1"/>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="112" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" customHeight="1" thickBot="1">
-      <c r="A4" s="96"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="98"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="113"/>
     </row>
     <row r="5" spans="1:5" ht="73.5" customHeight="1" thickBot="1">
       <c r="A5" s="3" t="s">
@@ -45930,10 +45937,10 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="101"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="8">
         <v>642436</v>
       </c>
@@ -45945,8 +45952,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A9" s="105"/>
-      <c r="B9" s="102"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="9">
         <v>642437</v>
       </c>
@@ -45958,8 +45965,8 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="105"/>
-      <c r="B10" s="102"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="9">
         <v>642438</v>
       </c>
@@ -45971,8 +45978,8 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="105"/>
-      <c r="B11" s="102"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="9">
         <v>642439</v>
       </c>
@@ -45984,10 +45991,10 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="102"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="9">
         <v>642440</v>
       </c>
@@ -45999,8 +46006,8 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="105"/>
-      <c r="B13" s="102"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="9">
         <v>642441</v>
       </c>
@@ -46012,8 +46019,8 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="105"/>
-      <c r="B14" s="102"/>
+      <c r="A14" s="93"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="9">
         <v>642442</v>
       </c>
@@ -46025,8 +46032,8 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="105"/>
-      <c r="B15" s="102"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="11">
         <v>642443</v>
       </c>
@@ -46038,10 +46045,10 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="102"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="9">
         <v>642444</v>
       </c>
@@ -46053,8 +46060,8 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="105"/>
-      <c r="B17" s="102"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="9">
         <v>642445</v>
       </c>
@@ -46066,8 +46073,8 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="105"/>
-      <c r="B18" s="102"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="9">
         <v>642446</v>
       </c>
@@ -46079,8 +46086,8 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="105"/>
-      <c r="B19" s="102"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="9">
         <v>642447</v>
       </c>
@@ -46092,10 +46099,10 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="102"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="13" t="s">
         <v>75</v>
       </c>
@@ -46107,8 +46114,8 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="105"/>
-      <c r="B21" s="102"/>
+      <c r="A21" s="93"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="13" t="s">
         <v>76</v>
       </c>
@@ -46120,8 +46127,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A22" s="106"/>
-      <c r="B22" s="103"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="14" t="s">
         <v>77</v>
       </c>
@@ -46145,10 +46152,10 @@
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="13.95" customHeight="1">
-      <c r="A25" s="113" t="s">
+      <c r="A25" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="101"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="8">
         <v>312797</v>
       </c>
@@ -46160,8 +46167,8 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="105"/>
-      <c r="B26" s="102"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="101"/>
       <c r="C26" s="9">
         <v>312798</v>
       </c>
@@ -46173,8 +46180,8 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="105"/>
-      <c r="B27" s="102"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="101"/>
       <c r="C27" s="9">
         <v>312799</v>
       </c>
@@ -46186,8 +46193,8 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="105"/>
-      <c r="B28" s="102"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="101"/>
       <c r="C28" s="9">
         <v>312800</v>
       </c>
@@ -46199,10 +46206,10 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="102"/>
+      <c r="B29" s="101"/>
       <c r="C29" s="9">
         <v>312802</v>
       </c>
@@ -46214,8 +46221,8 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="105"/>
-      <c r="B30" s="102"/>
+      <c r="A30" s="93"/>
+      <c r="B30" s="101"/>
       <c r="C30" s="9">
         <v>312803</v>
       </c>
@@ -46227,8 +46234,8 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="105"/>
-      <c r="B31" s="102"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="101"/>
       <c r="C31" s="9">
         <v>312804</v>
       </c>
@@ -46240,8 +46247,8 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="105"/>
-      <c r="B32" s="102"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="101"/>
       <c r="C32" s="9">
         <v>312805</v>
       </c>
@@ -46253,10 +46260,10 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="104" t="s">
+      <c r="A33" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="102"/>
+      <c r="B33" s="101"/>
       <c r="C33" s="9">
         <v>312807</v>
       </c>
@@ -46268,8 +46275,8 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="105"/>
-      <c r="B34" s="102"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="101"/>
       <c r="C34" s="9">
         <v>312808</v>
       </c>
@@ -46281,8 +46288,8 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="105"/>
-      <c r="B35" s="102"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="101"/>
       <c r="C35" s="9">
         <v>312809</v>
       </c>
@@ -46294,8 +46301,8 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="105"/>
-      <c r="B36" s="102"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="101"/>
       <c r="C36" s="9">
         <v>312810</v>
       </c>
@@ -46307,10 +46314,10 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="104" t="s">
+      <c r="A37" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="102"/>
+      <c r="B37" s="101"/>
       <c r="C37" s="9">
         <v>490442</v>
       </c>
@@ -46322,8 +46329,8 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="105"/>
-      <c r="B38" s="102"/>
+      <c r="A38" s="93"/>
+      <c r="B38" s="101"/>
       <c r="C38" s="9">
         <v>490441</v>
       </c>
@@ -46335,8 +46342,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A39" s="106"/>
-      <c r="B39" s="103"/>
+      <c r="A39" s="94"/>
+      <c r="B39" s="102"/>
       <c r="C39" s="15">
         <v>490440</v>
       </c>
@@ -46355,7 +46362,7 @@
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" ht="51" customHeight="1">
-      <c r="A41" s="109" t="s">
+      <c r="A41" s="103" t="s">
         <v>82</v>
       </c>
       <c r="B41" s="18"/>
@@ -46370,7 +46377,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="48" customHeight="1" thickBot="1">
-      <c r="A42" s="110"/>
+      <c r="A42" s="104"/>
       <c r="B42" s="20"/>
       <c r="C42" s="15">
         <v>314417</v>
@@ -46389,10 +46396,10 @@
       <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A44" s="111" t="s">
+      <c r="A44" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="101"/>
+      <c r="B44" s="100"/>
       <c r="C44" s="8">
         <v>643863</v>
       </c>
@@ -46404,8 +46411,8 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="112"/>
-      <c r="B45" s="102"/>
+      <c r="A45" s="106"/>
+      <c r="B45" s="101"/>
       <c r="C45" s="9">
         <v>643864</v>
       </c>
@@ -46417,8 +46424,8 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="112"/>
-      <c r="B46" s="102"/>
+      <c r="A46" s="106"/>
+      <c r="B46" s="101"/>
       <c r="C46" s="9">
         <v>643865</v>
       </c>
@@ -46430,8 +46437,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A47" s="110"/>
-      <c r="B47" s="103"/>
+      <c r="A47" s="104"/>
+      <c r="B47" s="102"/>
       <c r="C47" s="14" t="s">
         <v>89</v>
       </c>
@@ -46462,7 +46469,7 @@
       <c r="E49" s="29"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="113" t="s">
+      <c r="A50" s="107" t="s">
         <v>95</v>
       </c>
       <c r="B50" s="30" t="s">
@@ -46472,10 +46479,10 @@
         <v>642913</v>
       </c>
       <c r="D50" s="32"/>
-      <c r="E50" s="107"/>
+      <c r="E50" s="95"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="105"/>
+      <c r="A51" s="93"/>
       <c r="B51" s="33" t="s">
         <v>97</v>
       </c>
@@ -46483,10 +46490,10 @@
         <v>643863</v>
       </c>
       <c r="D51" s="32"/>
-      <c r="E51" s="108"/>
+      <c r="E51" s="96"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="105"/>
+      <c r="A52" s="93"/>
       <c r="B52" s="35" t="s">
         <v>98</v>
       </c>
@@ -46494,10 +46501,10 @@
         <v>206878</v>
       </c>
       <c r="D52" s="32"/>
-      <c r="E52" s="108"/>
+      <c r="E52" s="96"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="105"/>
+      <c r="A53" s="93"/>
       <c r="B53" s="35" t="s">
         <v>99</v>
       </c>
@@ -46505,10 +46512,10 @@
         <v>206894</v>
       </c>
       <c r="D53" s="32"/>
-      <c r="E53" s="108"/>
+      <c r="E53" s="96"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="104" t="s">
+      <c r="A54" s="99" t="s">
         <v>100</v>
       </c>
       <c r="B54" s="35" t="s">
@@ -46518,10 +46525,10 @@
         <v>642913</v>
       </c>
       <c r="D54" s="32"/>
-      <c r="E54" s="107"/>
+      <c r="E54" s="95"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="105"/>
+      <c r="A55" s="93"/>
       <c r="B55" s="35" t="s">
         <v>101</v>
       </c>
@@ -46529,10 +46536,10 @@
         <v>643864</v>
       </c>
       <c r="D55" s="32"/>
-      <c r="E55" s="108"/>
+      <c r="E55" s="96"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="105"/>
+      <c r="A56" s="93"/>
       <c r="B56" s="33" t="s">
         <v>102</v>
       </c>
@@ -46540,10 +46547,10 @@
         <v>315577</v>
       </c>
       <c r="D56" s="32"/>
-      <c r="E56" s="108"/>
+      <c r="E56" s="96"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="105"/>
+      <c r="A57" s="93"/>
       <c r="B57" s="33" t="s">
         <v>103</v>
       </c>
@@ -46551,10 +46558,10 @@
         <v>315578</v>
       </c>
       <c r="D57" s="32"/>
-      <c r="E57" s="108"/>
+      <c r="E57" s="96"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="105" t="s">
+      <c r="A58" s="93" t="s">
         <v>104</v>
       </c>
       <c r="B58" s="35" t="s">
@@ -46564,10 +46571,10 @@
         <v>642913</v>
       </c>
       <c r="D58" s="32"/>
-      <c r="E58" s="107"/>
+      <c r="E58" s="95"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="105"/>
+      <c r="A59" s="93"/>
       <c r="B59" s="35" t="s">
         <v>105</v>
       </c>
@@ -46575,10 +46582,10 @@
         <v>643865</v>
       </c>
       <c r="D59" s="32"/>
-      <c r="E59" s="108"/>
+      <c r="E59" s="96"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="105"/>
+      <c r="A60" s="93"/>
       <c r="B60" s="35" t="s">
         <v>106</v>
       </c>
@@ -46586,10 +46593,10 @@
         <v>242080</v>
       </c>
       <c r="D60" s="32"/>
-      <c r="E60" s="108"/>
+      <c r="E60" s="96"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="105"/>
+      <c r="A61" s="93"/>
       <c r="B61" s="35" t="s">
         <v>107</v>
       </c>
@@ -46597,10 +46604,10 @@
         <v>242073</v>
       </c>
       <c r="D61" s="32"/>
-      <c r="E61" s="108"/>
+      <c r="E61" s="96"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="104" t="s">
+      <c r="A62" s="99" t="s">
         <v>108</v>
       </c>
       <c r="B62" s="35" t="s">
@@ -46610,10 +46617,10 @@
         <v>642913</v>
       </c>
       <c r="D62" s="32"/>
-      <c r="E62" s="107"/>
+      <c r="E62" s="95"/>
     </row>
     <row r="63" spans="1:5" ht="13.95" customHeight="1">
-      <c r="A63" s="105"/>
+      <c r="A63" s="93"/>
       <c r="B63" s="35" t="s">
         <v>109</v>
       </c>
@@ -46621,10 +46628,10 @@
         <v>738957</v>
       </c>
       <c r="D63" s="32"/>
-      <c r="E63" s="107"/>
+      <c r="E63" s="95"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="105"/>
+      <c r="A64" s="93"/>
       <c r="B64" s="35" t="s">
         <v>110</v>
       </c>
@@ -46632,10 +46639,10 @@
         <v>490996</v>
       </c>
       <c r="D64" s="32"/>
-      <c r="E64" s="107"/>
+      <c r="E64" s="95"/>
     </row>
     <row r="65" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A65" s="106"/>
+      <c r="A65" s="94"/>
       <c r="B65" s="36" t="s">
         <v>111</v>
       </c>
@@ -46643,10 +46650,10 @@
         <v>490999</v>
       </c>
       <c r="D65" s="32"/>
-      <c r="E65" s="107"/>
+      <c r="E65" s="95"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="114" t="s">
+      <c r="A66" s="98" t="s">
         <v>112</v>
       </c>
       <c r="B66" s="30" t="s">
@@ -46656,10 +46663,10 @@
         <v>642914</v>
       </c>
       <c r="D66" s="32"/>
-      <c r="E66" s="107"/>
+      <c r="E66" s="95"/>
     </row>
     <row r="67" spans="1:5" ht="13.95" customHeight="1">
-      <c r="A67" s="105"/>
+      <c r="A67" s="93"/>
       <c r="B67" s="35" t="s">
         <v>97</v>
       </c>
@@ -46667,10 +46674,10 @@
         <v>643863</v>
       </c>
       <c r="D67" s="32"/>
-      <c r="E67" s="108"/>
+      <c r="E67" s="96"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="105"/>
+      <c r="A68" s="93"/>
       <c r="B68" s="35" t="s">
         <v>114</v>
       </c>
@@ -46678,10 +46685,10 @@
         <v>206880</v>
       </c>
       <c r="D68" s="32"/>
-      <c r="E68" s="108"/>
+      <c r="E68" s="96"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="105"/>
+      <c r="A69" s="93"/>
       <c r="B69" s="35" t="s">
         <v>115</v>
       </c>
@@ -46689,10 +46696,10 @@
         <v>206896</v>
       </c>
       <c r="D69" s="32"/>
-      <c r="E69" s="108"/>
+      <c r="E69" s="96"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="105" t="s">
+      <c r="A70" s="93" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="35" t="s">
@@ -46702,10 +46709,10 @@
         <v>642914</v>
       </c>
       <c r="D70" s="32"/>
-      <c r="E70" s="107"/>
+      <c r="E70" s="95"/>
     </row>
     <row r="71" spans="1:5" ht="13.95" customHeight="1">
-      <c r="A71" s="105"/>
+      <c r="A71" s="93"/>
       <c r="B71" s="35" t="s">
         <v>101</v>
       </c>
@@ -46713,10 +46720,10 @@
         <v>643864</v>
       </c>
       <c r="D71" s="32"/>
-      <c r="E71" s="108"/>
+      <c r="E71" s="96"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="105"/>
+      <c r="A72" s="93"/>
       <c r="B72" s="35" t="s">
         <v>117</v>
       </c>
@@ -46724,10 +46731,10 @@
         <v>315579</v>
       </c>
       <c r="D72" s="32"/>
-      <c r="E72" s="108"/>
+      <c r="E72" s="96"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="105"/>
+      <c r="A73" s="93"/>
       <c r="B73" s="35" t="s">
         <v>118</v>
       </c>
@@ -46735,10 +46742,10 @@
         <v>315580</v>
       </c>
       <c r="D73" s="32"/>
-      <c r="E73" s="108"/>
+      <c r="E73" s="96"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="105" t="s">
+      <c r="A74" s="93" t="s">
         <v>119</v>
       </c>
       <c r="B74" s="35" t="s">
@@ -46748,10 +46755,10 @@
         <v>642914</v>
       </c>
       <c r="D74" s="32"/>
-      <c r="E74" s="107"/>
+      <c r="E74" s="95"/>
     </row>
     <row r="75" spans="1:5" ht="13.95" customHeight="1">
-      <c r="A75" s="105"/>
+      <c r="A75" s="93"/>
       <c r="B75" s="35" t="s">
         <v>105</v>
       </c>
@@ -46759,10 +46766,10 @@
         <v>643865</v>
       </c>
       <c r="D75" s="32"/>
-      <c r="E75" s="108"/>
+      <c r="E75" s="96"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="105"/>
+      <c r="A76" s="93"/>
       <c r="B76" s="35" t="s">
         <v>120</v>
       </c>
@@ -46770,10 +46777,10 @@
         <v>242081</v>
       </c>
       <c r="D76" s="32"/>
-      <c r="E76" s="108"/>
+      <c r="E76" s="96"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="105"/>
+      <c r="A77" s="93"/>
       <c r="B77" s="35" t="s">
         <v>121</v>
       </c>
@@ -46781,10 +46788,10 @@
         <v>242074</v>
       </c>
       <c r="D77" s="32"/>
-      <c r="E77" s="108"/>
+      <c r="E77" s="96"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="105" t="s">
+      <c r="A78" s="93" t="s">
         <v>122</v>
       </c>
       <c r="B78" s="35" t="s">
@@ -46794,10 +46801,10 @@
         <v>642914</v>
       </c>
       <c r="D78" s="32"/>
-      <c r="E78" s="107"/>
+      <c r="E78" s="95"/>
     </row>
     <row r="79" spans="1:5" ht="13.95" customHeight="1">
-      <c r="A79" s="105"/>
+      <c r="A79" s="93"/>
       <c r="B79" s="35" t="s">
         <v>109</v>
       </c>
@@ -46805,10 +46812,10 @@
         <v>738957</v>
       </c>
       <c r="D79" s="32"/>
-      <c r="E79" s="107"/>
+      <c r="E79" s="95"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="105"/>
+      <c r="A80" s="93"/>
       <c r="B80" s="35" t="s">
         <v>123</v>
       </c>
@@ -46816,10 +46823,10 @@
         <v>490997</v>
       </c>
       <c r="D80" s="32"/>
-      <c r="E80" s="107"/>
+      <c r="E80" s="95"/>
     </row>
     <row r="81" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A81" s="106"/>
+      <c r="A81" s="94"/>
       <c r="B81" s="36" t="s">
         <v>124</v>
       </c>
@@ -46827,10 +46834,10 @@
         <v>491000</v>
       </c>
       <c r="D81" s="32"/>
-      <c r="E81" s="107"/>
+      <c r="E81" s="95"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="114" t="s">
+      <c r="A82" s="98" t="s">
         <v>125</v>
       </c>
       <c r="B82" s="30" t="s">
@@ -46840,10 +46847,10 @@
         <v>642915</v>
       </c>
       <c r="D82" s="32"/>
-      <c r="E82" s="107"/>
+      <c r="E82" s="95"/>
     </row>
     <row r="83" spans="1:5" ht="13.95" customHeight="1">
-      <c r="A83" s="105"/>
+      <c r="A83" s="93"/>
       <c r="B83" s="35" t="s">
         <v>97</v>
       </c>
@@ -46851,10 +46858,10 @@
         <v>643863</v>
       </c>
       <c r="D83" s="32"/>
-      <c r="E83" s="108"/>
+      <c r="E83" s="96"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="105"/>
+      <c r="A84" s="93"/>
       <c r="B84" s="35" t="s">
         <v>127</v>
       </c>
@@ -46862,10 +46869,10 @@
         <v>206884</v>
       </c>
       <c r="D84" s="32"/>
-      <c r="E84" s="108"/>
+      <c r="E84" s="96"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="105"/>
+      <c r="A85" s="93"/>
       <c r="B85" s="35" t="s">
         <v>128</v>
       </c>
@@ -46873,10 +46880,10 @@
         <v>206900</v>
       </c>
       <c r="D85" s="32"/>
-      <c r="E85" s="108"/>
+      <c r="E85" s="96"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="105" t="s">
+      <c r="A86" s="93" t="s">
         <v>129</v>
       </c>
       <c r="B86" s="35" t="s">
@@ -46886,10 +46893,10 @@
         <v>642915</v>
       </c>
       <c r="D86" s="32"/>
-      <c r="E86" s="107"/>
+      <c r="E86" s="95"/>
     </row>
     <row r="87" spans="1:5" ht="13.95" customHeight="1">
-      <c r="A87" s="105"/>
+      <c r="A87" s="93"/>
       <c r="B87" s="35" t="s">
         <v>101</v>
       </c>
@@ -46897,10 +46904,10 @@
         <v>643864</v>
       </c>
       <c r="D87" s="32"/>
-      <c r="E87" s="108"/>
+      <c r="E87" s="96"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="105"/>
+      <c r="A88" s="93"/>
       <c r="B88" s="35" t="s">
         <v>130</v>
       </c>
@@ -46908,10 +46915,10 @@
         <v>315581</v>
       </c>
       <c r="D88" s="32"/>
-      <c r="E88" s="108"/>
+      <c r="E88" s="96"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="105"/>
+      <c r="A89" s="93"/>
       <c r="B89" s="35" t="s">
         <v>131</v>
       </c>
@@ -46919,10 +46926,10 @@
         <v>315582</v>
       </c>
       <c r="D89" s="32"/>
-      <c r="E89" s="108"/>
+      <c r="E89" s="96"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="105" t="s">
+      <c r="A90" s="93" t="s">
         <v>132</v>
       </c>
       <c r="B90" s="35" t="s">
@@ -46932,10 +46939,10 @@
         <v>642915</v>
       </c>
       <c r="D90" s="32"/>
-      <c r="E90" s="107"/>
+      <c r="E90" s="95"/>
     </row>
     <row r="91" spans="1:5" ht="13.95" customHeight="1">
-      <c r="A91" s="105"/>
+      <c r="A91" s="93"/>
       <c r="B91" s="35" t="s">
         <v>105</v>
       </c>
@@ -46943,10 +46950,10 @@
         <v>643865</v>
       </c>
       <c r="D91" s="32"/>
-      <c r="E91" s="108"/>
+      <c r="E91" s="96"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="105"/>
+      <c r="A92" s="93"/>
       <c r="B92" s="35" t="s">
         <v>133</v>
       </c>
@@ -46954,10 +46961,10 @@
         <v>242082</v>
       </c>
       <c r="D92" s="32"/>
-      <c r="E92" s="108"/>
+      <c r="E92" s="96"/>
     </row>
     <row r="93" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A93" s="106"/>
+      <c r="A93" s="94"/>
       <c r="B93" s="36" t="s">
         <v>134</v>
       </c>
@@ -46965,10 +46972,10 @@
         <v>242075</v>
       </c>
       <c r="D93" s="32"/>
-      <c r="E93" s="108"/>
+      <c r="E93" s="96"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="115" t="s">
+      <c r="A94" s="97" t="s">
         <v>135</v>
       </c>
       <c r="B94" s="38" t="s">
@@ -46978,10 +46985,10 @@
         <v>642916</v>
       </c>
       <c r="D94" s="32"/>
-      <c r="E94" s="107"/>
+      <c r="E94" s="95"/>
     </row>
     <row r="95" spans="1:5" ht="13.95" customHeight="1">
-      <c r="A95" s="105"/>
+      <c r="A95" s="93"/>
       <c r="B95" s="35" t="s">
         <v>97</v>
       </c>
@@ -46989,10 +46996,10 @@
         <v>643863</v>
       </c>
       <c r="D95" s="32"/>
-      <c r="E95" s="108"/>
+      <c r="E95" s="96"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="105"/>
+      <c r="A96" s="93"/>
       <c r="B96" s="35" t="s">
         <v>137</v>
       </c>
@@ -47000,10 +47007,10 @@
         <v>206882</v>
       </c>
       <c r="D96" s="32"/>
-      <c r="E96" s="108"/>
+      <c r="E96" s="96"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="105"/>
+      <c r="A97" s="93"/>
       <c r="B97" s="35" t="s">
         <v>138</v>
       </c>
@@ -47011,10 +47018,10 @@
         <v>206898</v>
       </c>
       <c r="D97" s="32"/>
-      <c r="E97" s="108"/>
+      <c r="E97" s="96"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="105" t="s">
+      <c r="A98" s="93" t="s">
         <v>139</v>
       </c>
       <c r="B98" s="35" t="s">
@@ -47024,10 +47031,10 @@
         <v>642916</v>
       </c>
       <c r="D98" s="32"/>
-      <c r="E98" s="107"/>
+      <c r="E98" s="95"/>
     </row>
     <row r="99" spans="1:5" ht="13.95" customHeight="1">
-      <c r="A99" s="105"/>
+      <c r="A99" s="93"/>
       <c r="B99" s="35" t="s">
         <v>101</v>
       </c>
@@ -47035,10 +47042,10 @@
         <v>643864</v>
       </c>
       <c r="D99" s="32"/>
-      <c r="E99" s="107"/>
+      <c r="E99" s="95"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="105"/>
+      <c r="A100" s="93"/>
       <c r="B100" s="35" t="s">
         <v>140</v>
       </c>
@@ -47046,10 +47053,10 @@
         <v>315584</v>
       </c>
       <c r="D100" s="32"/>
-      <c r="E100" s="107"/>
+      <c r="E100" s="95"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="105"/>
+      <c r="A101" s="93"/>
       <c r="B101" s="35" t="s">
         <v>141</v>
       </c>
@@ -47057,10 +47064,10 @@
         <v>315585</v>
       </c>
       <c r="D101" s="32"/>
-      <c r="E101" s="107"/>
+      <c r="E101" s="95"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="105" t="s">
+      <c r="A102" s="93" t="s">
         <v>142</v>
       </c>
       <c r="B102" s="35" t="s">
@@ -47070,10 +47077,10 @@
         <v>642916</v>
       </c>
       <c r="D102" s="32"/>
-      <c r="E102" s="107"/>
+      <c r="E102" s="95"/>
     </row>
     <row r="103" spans="1:5" ht="13.95" customHeight="1">
-      <c r="A103" s="105"/>
+      <c r="A103" s="93"/>
       <c r="B103" s="35" t="s">
         <v>105</v>
       </c>
@@ -47081,10 +47088,10 @@
         <v>643865</v>
       </c>
       <c r="D103" s="32"/>
-      <c r="E103" s="107"/>
+      <c r="E103" s="95"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="105"/>
+      <c r="A104" s="93"/>
       <c r="B104" s="35" t="s">
         <v>143</v>
       </c>
@@ -47092,10 +47099,10 @@
         <v>242083</v>
       </c>
       <c r="D104" s="32"/>
-      <c r="E104" s="107"/>
+      <c r="E104" s="95"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="105"/>
+      <c r="A105" s="93"/>
       <c r="B105" s="35" t="s">
         <v>144</v>
       </c>
@@ -47103,10 +47110,10 @@
         <v>242078</v>
       </c>
       <c r="D105" s="32"/>
-      <c r="E105" s="107"/>
+      <c r="E105" s="95"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="105" t="s">
+      <c r="A106" s="93" t="s">
         <v>145</v>
       </c>
       <c r="B106" s="35" t="s">
@@ -47116,10 +47123,10 @@
         <v>642916</v>
       </c>
       <c r="D106" s="32"/>
-      <c r="E106" s="107"/>
+      <c r="E106" s="95"/>
     </row>
     <row r="107" spans="1:5" ht="13.95" customHeight="1">
-      <c r="A107" s="105"/>
+      <c r="A107" s="93"/>
       <c r="B107" s="35" t="s">
         <v>109</v>
       </c>
@@ -47127,10 +47134,10 @@
         <v>738957</v>
       </c>
       <c r="D107" s="32"/>
-      <c r="E107" s="107"/>
+      <c r="E107" s="95"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="105"/>
+      <c r="A108" s="93"/>
       <c r="B108" s="35" t="s">
         <v>146</v>
       </c>
@@ -47138,10 +47145,10 @@
         <v>490998</v>
       </c>
       <c r="D108" s="32"/>
-      <c r="E108" s="107"/>
+      <c r="E108" s="95"/>
     </row>
     <row r="109" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A109" s="106"/>
+      <c r="A109" s="94"/>
       <c r="B109" s="36" t="s">
         <v>147</v>
       </c>
@@ -47149,39 +47156,17 @@
         <v>491001</v>
       </c>
       <c r="D109" s="32"/>
-      <c r="E109" s="107"/>
+      <c r="E109" s="95"/>
     </row>
   </sheetData>
   <sheetProtection password="CC01" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="49">
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="E102:E105"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="B8:B22"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
@@ -47197,12 +47182,34 @@
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="E102:E105"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="259" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -47612,17 +47619,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1">
-      <c r="A1" s="93"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
+      <c r="A1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
     </row>
     <row r="2" spans="1:5" ht="13.95" customHeight="1">
       <c r="A2" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="112" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="119" t="s">
@@ -47631,16 +47638,16 @@
       <c r="D2" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="112" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A3" s="96"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="98"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="113"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="41" t="s">
@@ -47754,7 +47761,7 @@
       <c r="A12" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B12" s="102"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="10" t="s">
         <v>228</v>
       </c>
@@ -47769,7 +47776,7 @@
       <c r="A13" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="102"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="10" t="s">
         <v>229</v>
       </c>
@@ -47840,7 +47847,7 @@
       <c r="A18" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="102"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="10">
         <v>737261</v>
       </c>
@@ -47855,7 +47862,7 @@
       <c r="A19" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="B19" s="102"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="10">
         <v>737262</v>
       </c>
@@ -47885,7 +47892,7 @@
       <c r="A21" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="103"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="16">
         <v>737263</v>
       </c>
@@ -48043,7 +48050,7 @@
       <c r="E33" s="70"/>
     </row>
     <row r="34" spans="1:5" ht="39.6" customHeight="1">
-      <c r="A34" s="113" t="s">
+      <c r="A34" s="107" t="s">
         <v>175</v>
       </c>
       <c r="B34" s="116"/>
@@ -48058,7 +48065,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="42" customHeight="1" thickBot="1">
-      <c r="A35" s="106"/>
+      <c r="A35" s="94"/>
       <c r="B35" s="117"/>
       <c r="C35" s="73">
         <v>734493</v>
@@ -49039,8 +49046,8 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="105"/>
-      <c r="B48" s="102"/>
+      <c r="A48" s="93"/>
+      <c r="B48" s="101"/>
       <c r="C48" s="79">
         <v>312832</v>
       </c>
@@ -49052,8 +49059,8 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="105"/>
-      <c r="B49" s="102"/>
+      <c r="A49" s="93"/>
+      <c r="B49" s="101"/>
       <c r="C49" s="79">
         <v>312833</v>
       </c>
@@ -49065,8 +49072,8 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="105"/>
-      <c r="B50" s="102"/>
+      <c r="A50" s="93"/>
+      <c r="B50" s="101"/>
       <c r="C50" s="79">
         <v>337802</v>
       </c>
@@ -49078,8 +49085,8 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="105"/>
-      <c r="B51" s="102"/>
+      <c r="A51" s="93"/>
+      <c r="B51" s="101"/>
       <c r="C51" s="79">
         <v>312834</v>
       </c>
@@ -49091,8 +49098,8 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="105"/>
-      <c r="B52" s="102"/>
+      <c r="A52" s="93"/>
+      <c r="B52" s="101"/>
       <c r="C52" s="79">
         <v>312835</v>
       </c>
@@ -49104,8 +49111,8 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="105"/>
-      <c r="B53" s="102"/>
+      <c r="A53" s="93"/>
+      <c r="B53" s="101"/>
       <c r="C53" s="79">
         <v>312836</v>
       </c>
@@ -49117,8 +49124,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A54" s="106"/>
-      <c r="B54" s="103"/>
+      <c r="A54" s="94"/>
+      <c r="B54" s="102"/>
       <c r="C54" s="81">
         <v>337803</v>
       </c>
@@ -49163,8 +49170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A5:E370"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -49313,11 +49320,11 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="B18" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C18" s="1">
-        <v>768763</v>
+      <c r="B18" s="162" t="s">
+        <v>457</v>
+      </c>
+      <c r="C18" s="162">
+        <v>768764</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -49325,7 +49332,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="B19" s="1" t="s">
-        <v>358</v>
+        <v>458</v>
       </c>
       <c r="C19" s="1">
         <v>768889</v>
@@ -49580,10 +49587,10 @@
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="1" t="s">
-        <v>357</v>
+        <v>457</v>
       </c>
       <c r="C44" s="1">
-        <v>768763</v>
+        <v>768764</v>
       </c>
       <c r="D44" s="1">
         <v>2</v>
@@ -49591,7 +49598,7 @@
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="1" t="s">
-        <v>358</v>
+        <v>458</v>
       </c>
       <c r="C45" s="1">
         <v>768889</v>
@@ -49857,10 +49864,10 @@
     </row>
     <row r="73" spans="2:4">
       <c r="B73" s="1" t="s">
-        <v>357</v>
+        <v>457</v>
       </c>
       <c r="C73" s="1">
-        <v>768763</v>
+        <v>768764</v>
       </c>
       <c r="D73" s="1">
         <v>2</v>
@@ -49868,7 +49875,7 @@
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="1" t="s">
-        <v>358</v>
+        <v>458</v>
       </c>
       <c r="C74" s="1">
         <v>768889</v>
@@ -50134,10 +50141,10 @@
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="1" t="s">
-        <v>357</v>
+        <v>457</v>
       </c>
       <c r="C100" s="1">
-        <v>768763</v>
+        <v>768764</v>
       </c>
       <c r="D100" s="1">
         <v>2</v>
@@ -50145,7 +50152,7 @@
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="1" t="s">
-        <v>358</v>
+        <v>458</v>
       </c>
       <c r="C101" s="1">
         <v>768889</v>
@@ -50400,10 +50407,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="B128" s="1" t="s">
-        <v>357</v>
+        <v>457</v>
       </c>
       <c r="C128" s="1">
-        <v>768763</v>
+        <v>768764</v>
       </c>
       <c r="D128" s="1">
         <v>2</v>
@@ -50411,7 +50418,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="B129" s="1" t="s">
-        <v>358</v>
+        <v>458</v>
       </c>
       <c r="C129" s="1">
         <v>768889</v>
@@ -50677,10 +50684,10 @@
     </row>
     <row r="156" spans="2:4">
       <c r="B156" s="1" t="s">
-        <v>357</v>
+        <v>457</v>
       </c>
       <c r="C156" s="1">
-        <v>768763</v>
+        <v>768764</v>
       </c>
       <c r="D156" s="1">
         <v>1</v>
@@ -50688,7 +50695,7 @@
     </row>
     <row r="157" spans="2:4">
       <c r="B157" s="1" t="s">
-        <v>358</v>
+        <v>458</v>
       </c>
       <c r="C157" s="1">
         <v>768889</v>
@@ -50943,10 +50950,10 @@
     </row>
     <row r="186" spans="2:4">
       <c r="B186" s="1" t="s">
-        <v>357</v>
+        <v>457</v>
       </c>
       <c r="C186" s="1">
-        <v>768763</v>
+        <v>768764</v>
       </c>
       <c r="D186" s="1">
         <v>2</v>
@@ -50954,7 +50961,7 @@
     </row>
     <row r="187" spans="2:4">
       <c r="B187" s="1" t="s">
-        <v>358</v>
+        <v>458</v>
       </c>
       <c r="C187" s="1">
         <v>768889</v>
@@ -51209,10 +51216,10 @@
     </row>
     <row r="217" spans="2:4">
       <c r="B217" s="1" t="s">
-        <v>357</v>
+        <v>457</v>
       </c>
       <c r="C217" s="1">
-        <v>768763</v>
+        <v>768764</v>
       </c>
       <c r="D217" s="1">
         <v>2</v>
@@ -51220,7 +51227,7 @@
     </row>
     <row r="218" spans="2:4">
       <c r="B218" s="1" t="s">
-        <v>358</v>
+        <v>458</v>
       </c>
       <c r="C218" s="1">
         <v>768889</v>
@@ -51486,10 +51493,10 @@
     </row>
     <row r="245" spans="2:4">
       <c r="B245" s="1" t="s">
-        <v>357</v>
+        <v>457</v>
       </c>
       <c r="C245" s="1">
-        <v>768763</v>
+        <v>768764</v>
       </c>
       <c r="D245" s="1">
         <v>2</v>
@@ -51497,7 +51504,7 @@
     </row>
     <row r="246" spans="2:4">
       <c r="B246" s="1" t="s">
-        <v>358</v>
+        <v>458</v>
       </c>
       <c r="C246" s="1">
         <v>768889</v>
@@ -51752,10 +51759,10 @@
     </row>
     <row r="273" spans="1:4">
       <c r="B273" s="1" t="s">
-        <v>357</v>
+        <v>457</v>
       </c>
       <c r="C273" s="1">
-        <v>768763</v>
+        <v>768764</v>
       </c>
       <c r="D273" s="1">
         <v>2</v>
@@ -51763,7 +51770,7 @@
     </row>
     <row r="274" spans="1:4">
       <c r="B274" s="1" t="s">
-        <v>358</v>
+        <v>458</v>
       </c>
       <c r="C274" s="1">
         <v>768889</v>
@@ -52018,10 +52025,10 @@
     </row>
     <row r="301" spans="2:4">
       <c r="B301" s="1" t="s">
-        <v>357</v>
+        <v>457</v>
       </c>
       <c r="C301" s="1">
-        <v>768763</v>
+        <v>768764</v>
       </c>
       <c r="D301" s="1">
         <v>2</v>
@@ -52029,7 +52036,7 @@
     </row>
     <row r="302" spans="2:4">
       <c r="B302" s="1" t="s">
-        <v>358</v>
+        <v>458</v>
       </c>
       <c r="C302" s="1">
         <v>768889</v>
@@ -52295,10 +52302,10 @@
     </row>
     <row r="330" spans="2:4">
       <c r="B330" s="1" t="s">
-        <v>357</v>
+        <v>457</v>
       </c>
       <c r="C330" s="1">
-        <v>768763</v>
+        <v>768764</v>
       </c>
       <c r="D330" s="1">
         <v>1</v>
@@ -52306,7 +52313,7 @@
     </row>
     <row r="331" spans="2:4">
       <c r="B331" s="1" t="s">
-        <v>358</v>
+        <v>458</v>
       </c>
       <c r="C331" s="1">
         <v>768889</v>
@@ -52561,10 +52568,10 @@
     </row>
     <row r="358" spans="2:4">
       <c r="B358" s="1" t="s">
-        <v>357</v>
+        <v>457</v>
       </c>
       <c r="C358" s="1">
-        <v>768763</v>
+        <v>768764</v>
       </c>
       <c r="D358" s="1">
         <v>2</v>
@@ -52572,7 +52579,7 @@
     </row>
     <row r="359" spans="2:4">
       <c r="B359" s="1" t="s">
-        <v>358</v>
+        <v>458</v>
       </c>
       <c r="C359" s="1">
         <v>768889</v>
@@ -52704,7 +52711,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -53852,7 +53860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A5:E357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -57258,7 +57266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A5:E344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -60521,7 +60529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A5:G356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -63982,7 +63990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A5:E370"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -67538,7 +67546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A5:E355"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -70944,7 +70952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A5:E344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -74207,7 +74215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A5:F368"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/data/Alumark S70.xlsx
+++ b/data/Alumark S70.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3996D10C-DF0A-4986-8853-E5418058F7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="982" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="982" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Alumark до 2400 белый" sheetId="8" r:id="rId1"/>
@@ -1419,7 +1418,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
@@ -2093,51 +2092,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2160,6 +2115,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2300,13 +2300,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normál_E11A2292-211 D7-1800" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normál_E11A2292-211 D7-1800" xfId="3"/>
+    <cellStyle name="Standard 2" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -16215,9 +16214,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -16255,9 +16254,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16292,7 +16291,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16327,7 +16326,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -16500,7 +16499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:E363"/>
   <sheetViews>
     <sheetView topLeftCell="A333" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
@@ -16810,16 +16809,16 @@
       <c r="E29" s="91"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="162"/>
-      <c r="C30" s="162"/>
-      <c r="D30" s="162"/>
-      <c r="E30" s="162"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="162"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="162"/>
-      <c r="E31" s="162"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
@@ -17347,14 +17346,14 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B85" s="162"/>
-      <c r="C85" s="162"/>
-      <c r="D85" s="162"/>
+      <c r="B85" s="93"/>
+      <c r="C85" s="93"/>
+      <c r="D85" s="93"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="B86" s="162"/>
-      <c r="C86" s="162"/>
-      <c r="D86" s="162"/>
+      <c r="B86" s="93"/>
+      <c r="C86" s="93"/>
+      <c r="D86" s="93"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
@@ -17882,9 +17881,9 @@
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="B140" s="162"/>
-      <c r="C140" s="162"/>
-      <c r="D140" s="162"/>
+      <c r="B140" s="93"/>
+      <c r="C140" s="93"/>
+      <c r="D140" s="93"/>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
@@ -18669,9 +18668,9 @@
       </c>
     </row>
     <row r="227" spans="1:4">
-      <c r="B227" s="162"/>
-      <c r="C227" s="162"/>
-      <c r="D227" s="162"/>
+      <c r="B227" s="93"/>
+      <c r="C227" s="93"/>
+      <c r="D227" s="93"/>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
@@ -19988,11 +19987,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F370"/>
   <sheetViews>
-    <sheetView topLeftCell="A349" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B359" sqref="B359:D359"/>
+    <sheetView topLeftCell="A365" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A345" sqref="A345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20131,7 +20130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="1:4">
       <c r="B17" s="1" t="s">
         <v>355</v>
       </c>
@@ -20142,7 +20141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="1:4">
       <c r="B18" s="1" t="s">
         <v>457</v>
       </c>
@@ -20153,7 +20152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="1:4">
       <c r="B19" s="1" t="s">
         <v>411</v>
       </c>
@@ -20164,7 +20163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="1:4">
       <c r="B20" s="1" t="s">
         <v>283</v>
       </c>
@@ -20175,7 +20174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="1:4">
       <c r="B21" s="1" t="s">
         <v>448</v>
       </c>
@@ -20186,7 +20185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="1:4">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -20197,7 +20196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="1:4">
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
@@ -20208,7 +20207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="1:4">
       <c r="B24" s="1" t="s">
         <v>412</v>
       </c>
@@ -20219,7 +20218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="1:4">
       <c r="B25" s="1" t="s">
         <v>428</v>
       </c>
@@ -20230,7 +20229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="1:4">
       <c r="B26" s="1" t="s">
         <v>432</v>
       </c>
@@ -20241,7 +20240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="1:4">
       <c r="B27" s="1" t="s">
         <v>434</v>
       </c>
@@ -20252,7 +20251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:4">
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
@@ -20263,7 +20262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="1:4">
       <c r="B29" s="1" t="s">
         <v>403</v>
       </c>
@@ -20274,7 +20273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="1:4">
       <c r="B30" s="1" t="s">
         <v>404</v>
       </c>
@@ -20285,20 +20284,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>444</v>
+      </c>
       <c r="B32" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>444</v>
-      </c>
+    <row r="33" spans="2:4">
       <c r="B33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="2:4">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -20309,7 +20308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="2:4">
       <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
@@ -20320,7 +20319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="2:4">
       <c r="B36" s="1" t="s">
         <v>389</v>
       </c>
@@ -20331,7 +20330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="2:4">
       <c r="B37" s="1" t="s">
         <v>391</v>
       </c>
@@ -20342,7 +20341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="2:4">
       <c r="B38" s="1" t="s">
         <v>347</v>
       </c>
@@ -20353,7 +20352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="2:4">
       <c r="B39" s="1" t="s">
         <v>349</v>
       </c>
@@ -20364,7 +20363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="2:4">
       <c r="B40" s="1" t="s">
         <v>351</v>
       </c>
@@ -20375,7 +20374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="2:4">
       <c r="B41" s="1" t="s">
         <v>353</v>
       </c>
@@ -20386,7 +20385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="2:4">
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
@@ -20397,7 +20396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="2:4">
       <c r="B43" s="1" t="s">
         <v>355</v>
       </c>
@@ -20408,7 +20407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="2:4">
       <c r="B44" s="1" t="s">
         <v>457</v>
       </c>
@@ -20419,7 +20418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="2:4">
       <c r="B45" s="1" t="s">
         <v>411</v>
       </c>
@@ -20430,7 +20429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="2:4">
       <c r="B46" s="1" t="s">
         <v>283</v>
       </c>
@@ -20441,7 +20440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="2:4">
       <c r="B47" s="1" t="s">
         <v>10</v>
       </c>
@@ -20452,7 +20451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="2:4">
       <c r="B48" s="1" t="s">
         <v>11</v>
       </c>
@@ -20552,6 +20551,9 @@
       </c>
     </row>
     <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>444</v>
+      </c>
       <c r="B60" t="s">
         <v>445</v>
       </c>
@@ -20562,9 +20564,6 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>444</v>
-      </c>
       <c r="B62" s="1" t="s">
         <v>0</v>
       </c>
@@ -20829,6 +20828,9 @@
       </c>
     </row>
     <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>444</v>
+      </c>
       <c r="B87" t="s">
         <v>446</v>
       </c>
@@ -20850,9 +20852,6 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>444</v>
-      </c>
       <c r="B90" s="1" t="s">
         <v>3</v>
       </c>
@@ -21095,6 +21094,9 @@
       </c>
     </row>
     <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>444</v>
+      </c>
       <c r="B115" t="s">
         <v>446</v>
       </c>
@@ -21127,9 +21129,6 @@
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>444</v>
-      </c>
       <c r="B119" s="1" t="s">
         <v>389</v>
       </c>
@@ -21239,7 +21238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="2:4">
+    <row r="129" spans="1:4">
       <c r="B129" s="1" t="s">
         <v>411</v>
       </c>
@@ -21250,7 +21249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="2:4">
+    <row r="130" spans="1:4">
       <c r="B130" s="1" t="s">
         <v>10</v>
       </c>
@@ -21261,7 +21260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="2:4">
+    <row r="131" spans="1:4">
       <c r="B131" s="1" t="s">
         <v>11</v>
       </c>
@@ -21272,7 +21271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="2:4">
+    <row r="132" spans="1:4">
       <c r="B132" s="1" t="s">
         <v>12</v>
       </c>
@@ -21283,7 +21282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:4">
+    <row r="133" spans="1:4">
       <c r="B133" s="1" t="s">
         <v>283</v>
       </c>
@@ -21294,7 +21293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="2:4">
+    <row r="134" spans="1:4">
       <c r="B134" s="1" t="s">
         <v>333</v>
       </c>
@@ -21305,7 +21304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="2:4">
+    <row r="135" spans="1:4">
       <c r="B135" s="1" t="s">
         <v>434</v>
       </c>
@@ -21316,7 +21315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:4">
+    <row r="136" spans="1:4">
       <c r="B136" s="1" t="s">
         <v>428</v>
       </c>
@@ -21327,7 +21326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="2:4">
+    <row r="137" spans="1:4">
       <c r="B137" s="1" t="s">
         <v>432</v>
       </c>
@@ -21338,7 +21337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:4">
+    <row r="138" spans="1:4">
       <c r="B138" s="1" t="s">
         <v>6</v>
       </c>
@@ -21349,7 +21348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="2:4">
+    <row r="139" spans="1:4">
       <c r="B139" s="1" t="s">
         <v>404</v>
       </c>
@@ -21360,7 +21359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:4">
+    <row r="140" spans="1:4">
       <c r="B140" s="1" t="s">
         <v>403</v>
       </c>
@@ -21371,17 +21370,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="2:4">
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>444</v>
+      </c>
       <c r="B143" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="144" spans="2:4">
+    <row r="144" spans="1:4">
       <c r="B144" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="2:4">
       <c r="B145" s="1" t="s">
         <v>0</v>
       </c>
@@ -21392,7 +21394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="2:4">
       <c r="B146" s="1" t="s">
         <v>3</v>
       </c>
@@ -21403,7 +21405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="2:4">
       <c r="B147" s="1" t="s">
         <v>389</v>
       </c>
@@ -21414,10 +21416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
-        <v>444</v>
-      </c>
+    <row r="148" spans="2:4">
       <c r="B148" s="1" t="s">
         <v>391</v>
       </c>
@@ -21428,7 +21427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="2:4">
       <c r="B149" s="1" t="s">
         <v>363</v>
       </c>
@@ -21439,7 +21438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="2:4">
       <c r="B150" s="1" t="s">
         <v>366</v>
       </c>
@@ -21450,7 +21449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="2:4">
       <c r="B151" s="1" t="s">
         <v>351</v>
       </c>
@@ -21461,7 +21460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="2:4">
       <c r="B152" s="1" t="s">
         <v>353</v>
       </c>
@@ -21472,7 +21471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="2:4">
       <c r="B153" s="1" t="s">
         <v>361</v>
       </c>
@@ -21483,7 +21482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="2:4">
       <c r="B154" s="1" t="s">
         <v>4</v>
       </c>
@@ -21494,7 +21493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="2:4">
       <c r="B155" s="1" t="s">
         <v>355</v>
       </c>
@@ -21505,7 +21504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="2:4">
       <c r="B156" s="1" t="s">
         <v>457</v>
       </c>
@@ -21516,7 +21515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="2:4">
       <c r="B157" s="1" t="s">
         <v>8</v>
       </c>
@@ -21527,7 +21526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="2:4">
       <c r="B158" s="1" t="s">
         <v>448</v>
       </c>
@@ -21538,7 +21537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="2:4">
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
@@ -21549,7 +21548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="2:4">
       <c r="B160" s="1" t="s">
         <v>11</v>
       </c>
@@ -21560,7 +21559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="2:4">
+    <row r="161" spans="1:4">
       <c r="B161" s="1" t="s">
         <v>283</v>
       </c>
@@ -21571,7 +21570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="2:4">
+    <row r="162" spans="1:4">
       <c r="B162" s="1" t="s">
         <v>333</v>
       </c>
@@ -21582,7 +21581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="2:4">
+    <row r="163" spans="1:4">
       <c r="B163" s="1" t="s">
         <v>434</v>
       </c>
@@ -21593,7 +21592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:4">
+    <row r="164" spans="1:4">
       <c r="B164" s="1" t="s">
         <v>428</v>
       </c>
@@ -21604,7 +21603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="2:4">
+    <row r="165" spans="1:4">
       <c r="B165" s="1" t="s">
         <v>432</v>
       </c>
@@ -21615,7 +21614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:4">
+    <row r="166" spans="1:4">
       <c r="B166" s="1" t="s">
         <v>6</v>
       </c>
@@ -21626,7 +21625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="2:4">
+    <row r="167" spans="1:4">
       <c r="B167" s="1" t="s">
         <v>403</v>
       </c>
@@ -21637,17 +21636,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="2:4">
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>444</v>
+      </c>
       <c r="B173" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="174" spans="2:4">
+    <row r="174" spans="1:4">
       <c r="B174" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="175" spans="2:4">
+    <row r="175" spans="1:4">
       <c r="B175" s="1" t="s">
         <v>0</v>
       </c>
@@ -21658,7 +21660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="2:4">
+    <row r="176" spans="1:4">
       <c r="B176" s="1" t="s">
         <v>3</v>
       </c>
@@ -21669,7 +21671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="2:4">
       <c r="B177" s="1" t="s">
         <v>389</v>
       </c>
@@ -21680,7 +21682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="2:4">
       <c r="B178" s="1" t="s">
         <v>391</v>
       </c>
@@ -21691,10 +21693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" t="s">
-        <v>444</v>
-      </c>
+    <row r="179" spans="2:4">
       <c r="B179" s="1" t="s">
         <v>367</v>
       </c>
@@ -21705,7 +21704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="2:4">
       <c r="B180" s="1" t="s">
         <v>369</v>
       </c>
@@ -21716,7 +21715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="2:4">
       <c r="B181" s="1" t="s">
         <v>351</v>
       </c>
@@ -21727,7 +21726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="2:4">
       <c r="B182" s="1" t="s">
         <v>353</v>
       </c>
@@ -21738,7 +21737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="2:4">
       <c r="B183" s="1" t="s">
         <v>361</v>
       </c>
@@ -21749,7 +21748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="2:4">
       <c r="B184" s="1" t="s">
         <v>4</v>
       </c>
@@ -21760,7 +21759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="2:4">
       <c r="B185" s="1" t="s">
         <v>355</v>
       </c>
@@ -21771,7 +21770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="2:4">
       <c r="B186" s="1" t="s">
         <v>457</v>
       </c>
@@ -21782,7 +21781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="2:4">
       <c r="B187" s="1" t="s">
         <v>266</v>
       </c>
@@ -21793,7 +21792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="2:4">
       <c r="B188" s="1" t="s">
         <v>10</v>
       </c>
@@ -21804,7 +21803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="2:4">
       <c r="B189" s="1" t="s">
         <v>12</v>
       </c>
@@ -21815,7 +21814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="2:4">
       <c r="B190" s="1" t="s">
         <v>11</v>
       </c>
@@ -21826,7 +21825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="2:4">
       <c r="B191" s="1" t="s">
         <v>283</v>
       </c>
@@ -21837,7 +21836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="2:4">
       <c r="B192" s="1" t="s">
         <v>333</v>
       </c>
@@ -21848,7 +21847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="2:4">
+    <row r="193" spans="1:4">
       <c r="B193" s="1" t="s">
         <v>434</v>
       </c>
@@ -21859,7 +21858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:4">
+    <row r="194" spans="1:4">
       <c r="B194" s="1" t="s">
         <v>428</v>
       </c>
@@ -21870,7 +21869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="2:4">
+    <row r="195" spans="1:4">
       <c r="B195" s="1" t="s">
         <v>432</v>
       </c>
@@ -21881,7 +21880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:4">
+    <row r="196" spans="1:4">
       <c r="B196" s="1" t="s">
         <v>6</v>
       </c>
@@ -21892,7 +21891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="2:4">
+    <row r="197" spans="1:4">
       <c r="B197" s="1" t="s">
         <v>403</v>
       </c>
@@ -21903,17 +21902,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="2:4">
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>444</v>
+      </c>
       <c r="B204" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="205" spans="2:4">
+    <row r="205" spans="1:4">
       <c r="B205" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="206" spans="2:4">
+    <row r="206" spans="1:4">
       <c r="B206" s="1" t="s">
         <v>0</v>
       </c>
@@ -21924,7 +21926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="2:4">
+    <row r="207" spans="1:4">
       <c r="B207" s="1" t="s">
         <v>3</v>
       </c>
@@ -21935,7 +21937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="2:4">
+    <row r="208" spans="1:4">
       <c r="B208" s="1" t="s">
         <v>389</v>
       </c>
@@ -21946,7 +21948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="2:4">
       <c r="B209" s="1" t="s">
         <v>391</v>
       </c>
@@ -21957,7 +21959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="2:4">
       <c r="B210" s="1" t="s">
         <v>367</v>
       </c>
@@ -21968,10 +21970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" t="s">
-        <v>444</v>
-      </c>
+    <row r="211" spans="2:4">
       <c r="B211" s="1" t="s">
         <v>369</v>
       </c>
@@ -21982,7 +21981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="2:4">
       <c r="B212" s="1" t="s">
         <v>351</v>
       </c>
@@ -21993,7 +21992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="2:4">
       <c r="B213" s="1" t="s">
         <v>353</v>
       </c>
@@ -22004,7 +22003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="2:4">
       <c r="B214" s="1" t="s">
         <v>361</v>
       </c>
@@ -22015,7 +22014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="2:4">
       <c r="B215" s="1" t="s">
         <v>4</v>
       </c>
@@ -22026,7 +22025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="2:4">
       <c r="B216" s="1" t="s">
         <v>355</v>
       </c>
@@ -22037,7 +22036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="2:4">
       <c r="B217" s="1" t="s">
         <v>457</v>
       </c>
@@ -22048,7 +22047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="2:4">
       <c r="B218" s="1" t="s">
         <v>411</v>
       </c>
@@ -22059,7 +22058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="2:4">
       <c r="B219" s="1" t="s">
         <v>10</v>
       </c>
@@ -22070,7 +22069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="2:4">
       <c r="B220" s="1" t="s">
         <v>12</v>
       </c>
@@ -22081,7 +22080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="2:4">
       <c r="B221" s="1" t="s">
         <v>11</v>
       </c>
@@ -22092,7 +22091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="2:4">
       <c r="B222" s="1" t="s">
         <v>283</v>
       </c>
@@ -22103,7 +22102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="2:4">
       <c r="B223" s="1" t="s">
         <v>412</v>
       </c>
@@ -22114,7 +22113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="2:4">
       <c r="B224" s="1" t="s">
         <v>434</v>
       </c>
@@ -22181,6 +22180,9 @@
       </c>
     </row>
     <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>444</v>
+      </c>
       <c r="B232" t="s">
         <v>447</v>
       </c>
@@ -22257,9 +22259,6 @@
       </c>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" t="s">
-        <v>444</v>
-      </c>
       <c r="B240" s="1" t="s">
         <v>351</v>
       </c>
@@ -22447,6 +22446,9 @@
       </c>
     </row>
     <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>444</v>
+      </c>
       <c r="B260" t="s">
         <v>447</v>
       </c>
@@ -22534,9 +22536,6 @@
       </c>
     </row>
     <row r="269" spans="1:4">
-      <c r="A269" t="s">
-        <v>444</v>
-      </c>
       <c r="B269" s="1" t="s">
         <v>353</v>
       </c>
@@ -22580,7 +22579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="2:4">
+    <row r="273" spans="1:4">
       <c r="B273" s="1" t="s">
         <v>457</v>
       </c>
@@ -22591,7 +22590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="2:4">
+    <row r="274" spans="1:4">
       <c r="B274" s="1" t="s">
         <v>411</v>
       </c>
@@ -22602,7 +22601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="2:4">
+    <row r="275" spans="1:4">
       <c r="B275" s="1" t="s">
         <v>10</v>
       </c>
@@ -22613,7 +22612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="2:4">
+    <row r="276" spans="1:4">
       <c r="B276" s="1" t="s">
         <v>12</v>
       </c>
@@ -22624,7 +22623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="2:4">
+    <row r="277" spans="1:4">
       <c r="B277" s="1" t="s">
         <v>11</v>
       </c>
@@ -22635,7 +22634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="2:4">
+    <row r="278" spans="1:4">
       <c r="B278" s="1" t="s">
         <v>283</v>
       </c>
@@ -22646,7 +22645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="2:4">
+    <row r="279" spans="1:4">
       <c r="B279" s="1" t="s">
         <v>412</v>
       </c>
@@ -22657,7 +22656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="2:4">
+    <row r="280" spans="1:4">
       <c r="B280" s="1" t="s">
         <v>434</v>
       </c>
@@ -22668,7 +22667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="2:4">
+    <row r="281" spans="1:4">
       <c r="B281" s="1" t="s">
         <v>428</v>
       </c>
@@ -22679,7 +22678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="2:4">
+    <row r="282" spans="1:4">
       <c r="B282" s="1" t="s">
         <v>432</v>
       </c>
@@ -22690,7 +22689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="2:4">
+    <row r="283" spans="1:4">
       <c r="B283" s="1" t="s">
         <v>6</v>
       </c>
@@ -22701,7 +22700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="2:4">
+    <row r="284" spans="1:4">
       <c r="B284" s="1" t="s">
         <v>403</v>
       </c>
@@ -22712,17 +22711,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="2:4">
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>444</v>
+      </c>
       <c r="B288" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="2:4">
       <c r="B289" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="2:4">
       <c r="B290" s="1" t="s">
         <v>0</v>
       </c>
@@ -22733,7 +22735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="2:4">
       <c r="B291" s="1" t="s">
         <v>3</v>
       </c>
@@ -22744,7 +22746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="2:4">
       <c r="B292" s="1" t="s">
         <v>389</v>
       </c>
@@ -22755,7 +22757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="2:4">
       <c r="B293" s="1" t="s">
         <v>391</v>
       </c>
@@ -22766,7 +22768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="2:4">
       <c r="B294" s="1" t="s">
         <v>367</v>
       </c>
@@ -22777,7 +22779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="2:4">
       <c r="B295" s="1" t="s">
         <v>369</v>
       </c>
@@ -22788,7 +22790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="2:4">
       <c r="B296" s="1" t="s">
         <v>351</v>
       </c>
@@ -22799,7 +22801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="2:4">
       <c r="B297" s="1" t="s">
         <v>353</v>
       </c>
@@ -22810,10 +22812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
-      <c r="A298" t="s">
-        <v>444</v>
-      </c>
+    <row r="298" spans="2:4">
       <c r="B298" s="1" t="s">
         <v>361</v>
       </c>
@@ -22824,7 +22823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="2:4">
       <c r="B299" s="1" t="s">
         <v>4</v>
       </c>
@@ -22835,7 +22834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="2:4">
       <c r="B300" s="1" t="s">
         <v>355</v>
       </c>
@@ -22846,7 +22845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="2:4">
       <c r="B301" s="1" t="s">
         <v>457</v>
       </c>
@@ -22857,7 +22856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="2:4">
       <c r="B302" s="1" t="s">
         <v>411</v>
       </c>
@@ -22868,7 +22867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="2:4">
       <c r="B303" s="1" t="s">
         <v>10</v>
       </c>
@@ -22879,7 +22878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="2:4">
       <c r="B304" s="1" t="s">
         <v>12</v>
       </c>
@@ -22890,7 +22889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="2:4">
+    <row r="305" spans="1:4">
       <c r="B305" s="1" t="s">
         <v>11</v>
       </c>
@@ -22901,7 +22900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="2:4">
+    <row r="306" spans="1:4">
       <c r="B306" s="1" t="s">
         <v>283</v>
       </c>
@@ -22912,7 +22911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="2:4">
+    <row r="307" spans="1:4">
       <c r="B307" s="1" t="s">
         <v>412</v>
       </c>
@@ -22923,7 +22922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="2:4">
+    <row r="308" spans="1:4">
       <c r="B308" s="1" t="s">
         <v>434</v>
       </c>
@@ -22934,7 +22933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="2:4">
+    <row r="309" spans="1:4">
       <c r="B309" s="1" t="s">
         <v>428</v>
       </c>
@@ -22945,7 +22944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="2:4">
+    <row r="310" spans="1:4">
       <c r="B310" s="1" t="s">
         <v>432</v>
       </c>
@@ -22956,7 +22955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="2:4">
+    <row r="311" spans="1:4">
       <c r="B311" s="1" t="s">
         <v>6</v>
       </c>
@@ -22967,7 +22966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="2:4">
+    <row r="312" spans="1:4">
       <c r="B312" s="1" t="s">
         <v>404</v>
       </c>
@@ -22978,7 +22977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="2:4">
+    <row r="313" spans="1:4">
       <c r="B313" s="1" t="s">
         <v>403</v>
       </c>
@@ -22989,17 +22988,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="2:4">
+    <row r="317" spans="1:4">
+      <c r="A317" t="s">
+        <v>444</v>
+      </c>
       <c r="B317" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="318" spans="2:4">
+    <row r="318" spans="1:4">
       <c r="B318" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="319" spans="2:4">
+    <row r="319" spans="1:4">
       <c r="B319" s="1" t="s">
         <v>0</v>
       </c>
@@ -23010,7 +23012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="2:4">
+    <row r="320" spans="1:4">
       <c r="B320" s="1" t="s">
         <v>3</v>
       </c>
@@ -23021,7 +23023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="2:4">
       <c r="B321" s="1" t="s">
         <v>389</v>
       </c>
@@ -23032,7 +23034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="2:4">
       <c r="B322" s="1" t="s">
         <v>391</v>
       </c>
@@ -23043,7 +23045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="2:4">
       <c r="B323" s="1" t="s">
         <v>367</v>
       </c>
@@ -23054,7 +23056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="2:4">
       <c r="B324" s="1" t="s">
         <v>369</v>
       </c>
@@ -23065,7 +23067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="2:4">
       <c r="B325" s="1" t="s">
         <v>351</v>
       </c>
@@ -23076,7 +23078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="2:4">
       <c r="B326" s="1" t="s">
         <v>353</v>
       </c>
@@ -23087,7 +23089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="2:4">
       <c r="B327" s="1" t="s">
         <v>361</v>
       </c>
@@ -23098,10 +23100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
-      <c r="A328" t="s">
-        <v>444</v>
-      </c>
+    <row r="328" spans="2:4">
       <c r="B328" s="1" t="s">
         <v>4</v>
       </c>
@@ -23112,7 +23111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="2:4">
       <c r="B329" s="1" t="s">
         <v>355</v>
       </c>
@@ -23123,7 +23122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="2:4">
       <c r="B330" s="1" t="s">
         <v>457</v>
       </c>
@@ -23134,7 +23133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="2:4">
       <c r="B331" s="1" t="s">
         <v>411</v>
       </c>
@@ -23145,7 +23144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="2:4">
       <c r="B332" s="1" t="s">
         <v>448</v>
       </c>
@@ -23156,7 +23155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="2:4">
       <c r="B333" s="1" t="s">
         <v>10</v>
       </c>
@@ -23167,7 +23166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="2:4">
       <c r="B334" s="1" t="s">
         <v>11</v>
       </c>
@@ -23178,7 +23177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="2:4">
       <c r="B335" s="1" t="s">
         <v>283</v>
       </c>
@@ -23189,7 +23188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="2:4">
       <c r="B336" s="1" t="s">
         <v>412</v>
       </c>
@@ -23200,7 +23199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="2:4">
+    <row r="337" spans="1:4">
       <c r="B337" s="1" t="s">
         <v>434</v>
       </c>
@@ -23211,7 +23210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="2:4">
+    <row r="338" spans="1:4">
       <c r="B338" s="1" t="s">
         <v>428</v>
       </c>
@@ -23222,7 +23221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="2:4">
+    <row r="339" spans="1:4">
       <c r="B339" s="1" t="s">
         <v>432</v>
       </c>
@@ -23233,7 +23232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="2:4">
+    <row r="340" spans="1:4">
       <c r="B340" s="1" t="s">
         <v>6</v>
       </c>
@@ -23244,7 +23243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="2:4">
+    <row r="341" spans="1:4">
       <c r="B341" s="1" t="s">
         <v>403</v>
       </c>
@@ -23255,17 +23254,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="345" spans="2:4">
+    <row r="345" spans="1:4">
+      <c r="A345" t="s">
+        <v>444</v>
+      </c>
       <c r="B345" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="346" spans="2:4">
+    <row r="346" spans="1:4">
       <c r="B346" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="347" spans="2:4">
+    <row r="347" spans="1:4">
       <c r="B347" s="1" t="s">
         <v>0</v>
       </c>
@@ -23276,7 +23278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="2:4">
+    <row r="348" spans="1:4">
       <c r="B348" s="1" t="s">
         <v>3</v>
       </c>
@@ -23287,7 +23289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="2:4">
+    <row r="349" spans="1:4">
       <c r="B349" s="1" t="s">
         <v>389</v>
       </c>
@@ -23298,7 +23300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="2:4">
+    <row r="350" spans="1:4">
       <c r="B350" s="1" t="s">
         <v>391</v>
       </c>
@@ -23309,7 +23311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="351" spans="2:4">
+    <row r="351" spans="1:4">
       <c r="B351" s="1" t="s">
         <v>367</v>
       </c>
@@ -23320,7 +23322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="2:4">
+    <row r="352" spans="1:4">
       <c r="B352" s="1" t="s">
         <v>369</v>
       </c>
@@ -23331,7 +23333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="2:4">
       <c r="B353" s="1" t="s">
         <v>351</v>
       </c>
@@ -23342,7 +23344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="2:4">
       <c r="B354" s="1" t="s">
         <v>353</v>
       </c>
@@ -23353,7 +23355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="2:4">
       <c r="B355" s="1" t="s">
         <v>361</v>
       </c>
@@ -23364,7 +23366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="2:4">
       <c r="B356" s="1" t="s">
         <v>4</v>
       </c>
@@ -23375,10 +23377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
-      <c r="A357" t="s">
-        <v>444</v>
-      </c>
+    <row r="357" spans="2:4">
       <c r="B357" s="1" t="s">
         <v>355</v>
       </c>
@@ -23389,7 +23388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="2:4">
       <c r="B358" s="1" t="s">
         <v>457</v>
       </c>
@@ -23400,7 +23399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="2:4">
       <c r="B359" s="1" t="s">
         <v>411</v>
       </c>
@@ -23411,7 +23410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="2:4">
       <c r="B360" s="1" t="s">
         <v>10</v>
       </c>
@@ -23422,7 +23421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="2:4">
       <c r="B361" s="1" t="s">
         <v>11</v>
       </c>
@@ -23433,7 +23432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="2:4">
       <c r="B362" s="1" t="s">
         <v>12</v>
       </c>
@@ -23444,7 +23443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="2:4">
       <c r="B363" s="1" t="s">
         <v>283</v>
       </c>
@@ -23455,7 +23454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="2:4">
       <c r="B364" s="1" t="s">
         <v>412</v>
       </c>
@@ -23466,7 +23465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="2:4">
       <c r="B365" s="1" t="s">
         <v>434</v>
       </c>
@@ -23477,7 +23476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="2:4">
       <c r="B366" s="1" t="s">
         <v>429</v>
       </c>
@@ -23488,7 +23487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="2:4">
       <c r="B367" s="1" t="s">
         <v>432</v>
       </c>
@@ -23499,7 +23498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="2:4">
       <c r="B368" s="1" t="s">
         <v>6</v>
       </c>
@@ -23539,10 +23538,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F369"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -27090,10 +27089,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F383"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A201" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -30785,10 +30784,10 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F370"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A105" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -34386,11 +34385,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F370"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B359" sqref="B359:D359"/>
+    <sheetView tabSelected="1" topLeftCell="A373" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A345" sqref="A345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34529,7 +34528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="1:4">
       <c r="B17" s="1" t="s">
         <v>355</v>
       </c>
@@ -34540,7 +34539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="1:4">
       <c r="B18" s="1" t="s">
         <v>457</v>
       </c>
@@ -34551,7 +34550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="1:4">
       <c r="B19" s="1" t="s">
         <v>411</v>
       </c>
@@ -34562,7 +34561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="1:4">
       <c r="B20" s="1" t="s">
         <v>283</v>
       </c>
@@ -34573,7 +34572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="1:4">
       <c r="B21" s="1" t="s">
         <v>448</v>
       </c>
@@ -34584,7 +34583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="1:4">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -34595,7 +34594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="1:4">
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
@@ -34606,7 +34605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="1:4">
       <c r="B24" s="1" t="s">
         <v>412</v>
       </c>
@@ -34617,7 +34616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="1:4">
       <c r="B25" s="1" t="s">
         <v>434</v>
       </c>
@@ -34628,7 +34627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="1:4">
       <c r="B26" s="1" t="s">
         <v>428</v>
       </c>
@@ -34639,7 +34638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="1:4">
       <c r="B27" s="1" t="s">
         <v>432</v>
       </c>
@@ -34650,7 +34649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:4">
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
@@ -34661,7 +34660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="1:4">
       <c r="B29" s="1" t="s">
         <v>403</v>
       </c>
@@ -34672,7 +34671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="1:4">
       <c r="B30" s="1" t="s">
         <v>404</v>
       </c>
@@ -34683,20 +34682,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>439</v>
+      </c>
       <c r="B32" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>439</v>
-      </c>
+    <row r="33" spans="2:4">
       <c r="B33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="2:4">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -34707,7 +34706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="2:4">
       <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
@@ -34718,7 +34717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="2:4">
       <c r="B36" s="1" t="s">
         <v>389</v>
       </c>
@@ -34729,7 +34728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="2:4">
       <c r="B37" s="1" t="s">
         <v>391</v>
       </c>
@@ -34740,7 +34739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="2:4">
       <c r="B38" s="1" t="s">
         <v>347</v>
       </c>
@@ -34751,7 +34750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="2:4">
       <c r="B39" s="1" t="s">
         <v>349</v>
       </c>
@@ -34762,7 +34761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="2:4">
       <c r="B40" s="1" t="s">
         <v>351</v>
       </c>
@@ -34773,7 +34772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="2:4">
       <c r="B41" s="1" t="s">
         <v>353</v>
       </c>
@@ -34784,7 +34783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="2:4">
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
@@ -34795,7 +34794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="2:4">
       <c r="B43" s="1" t="s">
         <v>355</v>
       </c>
@@ -34806,7 +34805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="2:4">
       <c r="B44" s="1" t="s">
         <v>457</v>
       </c>
@@ -34817,7 +34816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="2:4">
       <c r="B45" s="1" t="s">
         <v>411</v>
       </c>
@@ -34828,7 +34827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="2:4">
       <c r="B46" s="1" t="s">
         <v>283</v>
       </c>
@@ -34839,7 +34838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="2:4">
       <c r="B47" s="1" t="s">
         <v>10</v>
       </c>
@@ -34850,7 +34849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="2:4">
       <c r="B48" s="1" t="s">
         <v>11</v>
       </c>
@@ -34950,6 +34949,9 @@
       </c>
     </row>
     <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>439</v>
+      </c>
       <c r="B60" t="s">
         <v>441</v>
       </c>
@@ -34960,9 +34962,6 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>439</v>
-      </c>
       <c r="B62" s="1" t="s">
         <v>0</v>
       </c>
@@ -35227,6 +35226,9 @@
       </c>
     </row>
     <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>439</v>
+      </c>
       <c r="B87" t="s">
         <v>442</v>
       </c>
@@ -35248,9 +35250,6 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>439</v>
-      </c>
       <c r="B90" s="1" t="s">
         <v>3</v>
       </c>
@@ -35493,6 +35492,9 @@
       </c>
     </row>
     <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>439</v>
+      </c>
       <c r="B115" t="s">
         <v>442</v>
       </c>
@@ -35525,9 +35527,6 @@
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>439</v>
-      </c>
       <c r="B119" s="1" t="s">
         <v>389</v>
       </c>
@@ -35637,7 +35636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="2:4">
+    <row r="129" spans="1:4">
       <c r="B129" s="1" t="s">
         <v>411</v>
       </c>
@@ -35648,7 +35647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="2:4">
+    <row r="130" spans="1:4">
       <c r="B130" s="1" t="s">
         <v>10</v>
       </c>
@@ -35659,7 +35658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="2:4">
+    <row r="131" spans="1:4">
       <c r="B131" s="1" t="s">
         <v>11</v>
       </c>
@@ -35670,7 +35669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="2:4">
+    <row r="132" spans="1:4">
       <c r="B132" s="1" t="s">
         <v>12</v>
       </c>
@@ -35681,7 +35680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:4">
+    <row r="133" spans="1:4">
       <c r="B133" s="1" t="s">
         <v>283</v>
       </c>
@@ -35692,7 +35691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="2:4">
+    <row r="134" spans="1:4">
       <c r="B134" s="1" t="s">
         <v>333</v>
       </c>
@@ -35703,7 +35702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="2:4">
+    <row r="135" spans="1:4">
       <c r="B135" s="1" t="s">
         <v>434</v>
       </c>
@@ -35714,7 +35713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:4">
+    <row r="136" spans="1:4">
       <c r="B136" s="1" t="s">
         <v>428</v>
       </c>
@@ -35725,7 +35724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="2:4">
+    <row r="137" spans="1:4">
       <c r="B137" s="1" t="s">
         <v>432</v>
       </c>
@@ -35736,7 +35735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:4">
+    <row r="138" spans="1:4">
       <c r="B138" s="1" t="s">
         <v>6</v>
       </c>
@@ -35747,7 +35746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="2:4">
+    <row r="139" spans="1:4">
       <c r="B139" s="1" t="s">
         <v>404</v>
       </c>
@@ -35758,7 +35757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:4">
+    <row r="140" spans="1:4">
       <c r="B140" s="1" t="s">
         <v>403</v>
       </c>
@@ -35769,17 +35768,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="2:4">
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>439</v>
+      </c>
       <c r="B143" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="144" spans="2:4">
+    <row r="144" spans="1:4">
       <c r="B144" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="2:4">
       <c r="B145" s="1" t="s">
         <v>0</v>
       </c>
@@ -35790,7 +35792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="2:4">
       <c r="B146" s="1" t="s">
         <v>3</v>
       </c>
@@ -35801,7 +35803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="2:4">
       <c r="B147" s="1" t="s">
         <v>389</v>
       </c>
@@ -35812,10 +35814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
-        <v>439</v>
-      </c>
+    <row r="148" spans="2:4">
       <c r="B148" s="1" t="s">
         <v>391</v>
       </c>
@@ -35826,7 +35825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="2:4">
       <c r="B149" s="1" t="s">
         <v>363</v>
       </c>
@@ -35837,7 +35836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="2:4">
       <c r="B150" s="1" t="s">
         <v>366</v>
       </c>
@@ -35848,7 +35847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="2:4">
       <c r="B151" s="1" t="s">
         <v>351</v>
       </c>
@@ -35859,7 +35858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="2:4">
       <c r="B152" s="1" t="s">
         <v>353</v>
       </c>
@@ -35870,7 +35869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="2:4">
       <c r="B153" s="1" t="s">
         <v>361</v>
       </c>
@@ -35881,7 +35880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="2:4">
       <c r="B154" s="1" t="s">
         <v>4</v>
       </c>
@@ -35892,7 +35891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="2:4">
       <c r="B155" s="1" t="s">
         <v>355</v>
       </c>
@@ -35903,7 +35902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="2:4">
       <c r="B156" s="1" t="s">
         <v>457</v>
       </c>
@@ -35914,7 +35913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="2:4">
       <c r="B157" s="1" t="s">
         <v>8</v>
       </c>
@@ -35925,7 +35924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="2:4">
       <c r="B158" s="1" t="s">
         <v>448</v>
       </c>
@@ -35936,7 +35935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="2:4">
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
@@ -35947,7 +35946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="2:4">
       <c r="B160" s="1" t="s">
         <v>11</v>
       </c>
@@ -35958,7 +35957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="2:4">
+    <row r="161" spans="1:4">
       <c r="B161" s="1" t="s">
         <v>283</v>
       </c>
@@ -35969,7 +35968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="2:4">
+    <row r="162" spans="1:4">
       <c r="B162" s="1" t="s">
         <v>333</v>
       </c>
@@ -35980,7 +35979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="2:4">
+    <row r="163" spans="1:4">
       <c r="B163" s="1" t="s">
         <v>434</v>
       </c>
@@ -35991,7 +35990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:4">
+    <row r="164" spans="1:4">
       <c r="B164" s="1" t="s">
         <v>428</v>
       </c>
@@ -36002,7 +36001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="2:4">
+    <row r="165" spans="1:4">
       <c r="B165" s="1" t="s">
         <v>432</v>
       </c>
@@ -36013,7 +36012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:4">
+    <row r="166" spans="1:4">
       <c r="B166" s="1" t="s">
         <v>6</v>
       </c>
@@ -36024,7 +36023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="2:4">
+    <row r="167" spans="1:4">
       <c r="B167" s="1" t="s">
         <v>403</v>
       </c>
@@ -36035,17 +36034,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="2:4">
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>439</v>
+      </c>
       <c r="B173" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="174" spans="2:4">
+    <row r="174" spans="1:4">
       <c r="B174" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="175" spans="2:4">
+    <row r="175" spans="1:4">
       <c r="B175" s="1" t="s">
         <v>0</v>
       </c>
@@ -36056,7 +36058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="2:4">
+    <row r="176" spans="1:4">
       <c r="B176" s="1" t="s">
         <v>3</v>
       </c>
@@ -36067,7 +36069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="2:4">
       <c r="B177" s="1" t="s">
         <v>389</v>
       </c>
@@ -36078,7 +36080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="2:4">
       <c r="B178" s="1" t="s">
         <v>391</v>
       </c>
@@ -36089,10 +36091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" t="s">
-        <v>439</v>
-      </c>
+    <row r="179" spans="2:4">
       <c r="B179" s="1" t="s">
         <v>367</v>
       </c>
@@ -36103,7 +36102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="2:4">
       <c r="B180" s="1" t="s">
         <v>369</v>
       </c>
@@ -36114,7 +36113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="2:4">
       <c r="B181" s="1" t="s">
         <v>351</v>
       </c>
@@ -36125,7 +36124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="2:4">
       <c r="B182" s="1" t="s">
         <v>353</v>
       </c>
@@ -36136,7 +36135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="2:4">
       <c r="B183" s="1" t="s">
         <v>361</v>
       </c>
@@ -36147,7 +36146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="2:4">
       <c r="B184" s="1" t="s">
         <v>4</v>
       </c>
@@ -36158,7 +36157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="2:4">
       <c r="B185" s="1" t="s">
         <v>355</v>
       </c>
@@ -36169,7 +36168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="2:4">
       <c r="B186" s="1" t="s">
         <v>457</v>
       </c>
@@ -36180,7 +36179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="2:4">
       <c r="B187" s="1" t="s">
         <v>266</v>
       </c>
@@ -36191,7 +36190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="2:4">
       <c r="B188" s="1" t="s">
         <v>10</v>
       </c>
@@ -36202,7 +36201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="2:4">
       <c r="B189" s="1" t="s">
         <v>12</v>
       </c>
@@ -36213,7 +36212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="2:4">
       <c r="B190" s="1" t="s">
         <v>11</v>
       </c>
@@ -36224,7 +36223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="2:4">
       <c r="B191" s="1" t="s">
         <v>283</v>
       </c>
@@ -36235,7 +36234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="2:4">
       <c r="B192" s="1" t="s">
         <v>333</v>
       </c>
@@ -36246,7 +36245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="2:4">
+    <row r="193" spans="1:4">
       <c r="B193" s="1" t="s">
         <v>434</v>
       </c>
@@ -36257,7 +36256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:4">
+    <row r="194" spans="1:4">
       <c r="B194" s="1" t="s">
         <v>428</v>
       </c>
@@ -36268,7 +36267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="2:4">
+    <row r="195" spans="1:4">
       <c r="B195" s="1" t="s">
         <v>432</v>
       </c>
@@ -36279,7 +36278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:4">
+    <row r="196" spans="1:4">
       <c r="B196" s="1" t="s">
         <v>6</v>
       </c>
@@ -36290,7 +36289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="2:4">
+    <row r="197" spans="1:4">
       <c r="B197" s="1" t="s">
         <v>403</v>
       </c>
@@ -36301,17 +36300,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="2:4">
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>439</v>
+      </c>
       <c r="B204" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="205" spans="2:4">
+    <row r="205" spans="1:4">
       <c r="B205" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="206" spans="2:4">
+    <row r="206" spans="1:4">
       <c r="B206" s="1" t="s">
         <v>0</v>
       </c>
@@ -36322,7 +36324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="2:4">
+    <row r="207" spans="1:4">
       <c r="B207" s="1" t="s">
         <v>3</v>
       </c>
@@ -36333,7 +36335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="2:4">
+    <row r="208" spans="1:4">
       <c r="B208" s="1" t="s">
         <v>389</v>
       </c>
@@ -36344,7 +36346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="2:4">
       <c r="B209" s="1" t="s">
         <v>391</v>
       </c>
@@ -36355,7 +36357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="2:4">
       <c r="B210" s="1" t="s">
         <v>367</v>
       </c>
@@ -36366,10 +36368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" t="s">
-        <v>439</v>
-      </c>
+    <row r="211" spans="2:4">
       <c r="B211" s="1" t="s">
         <v>369</v>
       </c>
@@ -36380,7 +36379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="2:4">
       <c r="B212" s="1" t="s">
         <v>351</v>
       </c>
@@ -36391,7 +36390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="2:4">
       <c r="B213" s="1" t="s">
         <v>353</v>
       </c>
@@ -36402,7 +36401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="2:4">
       <c r="B214" s="1" t="s">
         <v>361</v>
       </c>
@@ -36413,7 +36412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="2:4">
       <c r="B215" s="1" t="s">
         <v>4</v>
       </c>
@@ -36424,7 +36423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="2:4">
       <c r="B216" s="1" t="s">
         <v>355</v>
       </c>
@@ -36435,7 +36434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="2:4">
       <c r="B217" s="1" t="s">
         <v>457</v>
       </c>
@@ -36446,7 +36445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="2:4">
       <c r="B218" s="1" t="s">
         <v>411</v>
       </c>
@@ -36457,7 +36456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="2:4">
       <c r="B219" s="1" t="s">
         <v>10</v>
       </c>
@@ -36468,7 +36467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="2:4">
       <c r="B220" s="1" t="s">
         <v>12</v>
       </c>
@@ -36479,7 +36478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="2:4">
       <c r="B221" s="1" t="s">
         <v>11</v>
       </c>
@@ -36490,7 +36489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="2:4">
       <c r="B222" s="1" t="s">
         <v>283</v>
       </c>
@@ -36501,7 +36500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="2:4">
       <c r="B223" s="1" t="s">
         <v>412</v>
       </c>
@@ -36512,7 +36511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="2:4">
       <c r="B224" s="1" t="s">
         <v>434</v>
       </c>
@@ -36579,6 +36578,9 @@
       </c>
     </row>
     <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>439</v>
+      </c>
       <c r="B232" t="s">
         <v>443</v>
       </c>
@@ -36655,9 +36657,6 @@
       </c>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" t="s">
-        <v>439</v>
-      </c>
       <c r="B240" s="1" t="s">
         <v>351</v>
       </c>
@@ -36845,6 +36844,9 @@
       </c>
     </row>
     <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>439</v>
+      </c>
       <c r="B260" t="s">
         <v>443</v>
       </c>
@@ -36932,9 +36934,6 @@
       </c>
     </row>
     <row r="269" spans="1:4">
-      <c r="A269" t="s">
-        <v>439</v>
-      </c>
       <c r="B269" s="1" t="s">
         <v>353</v>
       </c>
@@ -36978,7 +36977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="2:4">
+    <row r="273" spans="1:4">
       <c r="B273" s="1" t="s">
         <v>457</v>
       </c>
@@ -36989,7 +36988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="2:4">
+    <row r="274" spans="1:4">
       <c r="B274" s="1" t="s">
         <v>411</v>
       </c>
@@ -37000,7 +36999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="2:4">
+    <row r="275" spans="1:4">
       <c r="B275" s="1" t="s">
         <v>10</v>
       </c>
@@ -37011,7 +37010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="276" spans="2:4">
+    <row r="276" spans="1:4">
       <c r="B276" s="1" t="s">
         <v>12</v>
       </c>
@@ -37022,7 +37021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="2:4">
+    <row r="277" spans="1:4">
       <c r="B277" s="1" t="s">
         <v>11</v>
       </c>
@@ -37033,7 +37032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="278" spans="2:4">
+    <row r="278" spans="1:4">
       <c r="B278" s="1" t="s">
         <v>283</v>
       </c>
@@ -37044,7 +37043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="2:4">
+    <row r="279" spans="1:4">
       <c r="B279" s="1" t="s">
         <v>412</v>
       </c>
@@ -37055,7 +37054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="2:4">
+    <row r="280" spans="1:4">
       <c r="B280" s="1" t="s">
         <v>434</v>
       </c>
@@ -37066,7 +37065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="2:4">
+    <row r="281" spans="1:4">
       <c r="B281" s="1" t="s">
         <v>428</v>
       </c>
@@ -37077,7 +37076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="2:4">
+    <row r="282" spans="1:4">
       <c r="B282" s="1" t="s">
         <v>432</v>
       </c>
@@ -37088,7 +37087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="2:4">
+    <row r="283" spans="1:4">
       <c r="B283" s="1" t="s">
         <v>6</v>
       </c>
@@ -37099,7 +37098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="2:4">
+    <row r="284" spans="1:4">
       <c r="B284" s="1" t="s">
         <v>403</v>
       </c>
@@ -37110,17 +37109,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="2:4">
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>439</v>
+      </c>
       <c r="B288" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="2:4">
       <c r="B289" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="2:4">
       <c r="B290" s="1" t="s">
         <v>0</v>
       </c>
@@ -37131,7 +37133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="2:4">
       <c r="B291" s="1" t="s">
         <v>3</v>
       </c>
@@ -37142,7 +37144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="2:4">
       <c r="B292" s="1" t="s">
         <v>389</v>
       </c>
@@ -37153,7 +37155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="2:4">
       <c r="B293" s="1" t="s">
         <v>391</v>
       </c>
@@ -37164,7 +37166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="2:4">
       <c r="B294" s="1" t="s">
         <v>367</v>
       </c>
@@ -37175,7 +37177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="2:4">
       <c r="B295" s="1" t="s">
         <v>369</v>
       </c>
@@ -37186,7 +37188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="2:4">
       <c r="B296" s="1" t="s">
         <v>351</v>
       </c>
@@ -37197,7 +37199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="2:4">
       <c r="B297" s="1" t="s">
         <v>353</v>
       </c>
@@ -37208,10 +37210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
-      <c r="A298" t="s">
-        <v>439</v>
-      </c>
+    <row r="298" spans="2:4">
       <c r="B298" s="1" t="s">
         <v>361</v>
       </c>
@@ -37222,7 +37221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="2:4">
       <c r="B299" s="1" t="s">
         <v>4</v>
       </c>
@@ -37233,7 +37232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="2:4">
       <c r="B300" s="1" t="s">
         <v>355</v>
       </c>
@@ -37244,7 +37243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="2:4">
       <c r="B301" s="1" t="s">
         <v>457</v>
       </c>
@@ -37255,7 +37254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="2:4">
       <c r="B302" s="1" t="s">
         <v>411</v>
       </c>
@@ -37266,7 +37265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="2:4">
       <c r="B303" s="1" t="s">
         <v>10</v>
       </c>
@@ -37277,7 +37276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="2:4">
       <c r="B304" s="1" t="s">
         <v>12</v>
       </c>
@@ -37288,7 +37287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="2:4">
+    <row r="305" spans="1:4">
       <c r="B305" s="1" t="s">
         <v>11</v>
       </c>
@@ -37299,7 +37298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="306" spans="2:4">
+    <row r="306" spans="1:4">
       <c r="B306" s="1" t="s">
         <v>283</v>
       </c>
@@ -37310,7 +37309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="2:4">
+    <row r="307" spans="1:4">
       <c r="B307" s="1" t="s">
         <v>412</v>
       </c>
@@ -37321,7 +37320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="2:4">
+    <row r="308" spans="1:4">
       <c r="B308" s="1" t="s">
         <v>434</v>
       </c>
@@ -37332,7 +37331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="2:4">
+    <row r="309" spans="1:4">
       <c r="B309" s="1" t="s">
         <v>428</v>
       </c>
@@ -37343,7 +37342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="2:4">
+    <row r="310" spans="1:4">
       <c r="B310" s="1" t="s">
         <v>432</v>
       </c>
@@ -37354,7 +37353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="2:4">
+    <row r="311" spans="1:4">
       <c r="B311" s="1" t="s">
         <v>6</v>
       </c>
@@ -37365,7 +37364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="2:4">
+    <row r="312" spans="1:4">
       <c r="B312" s="1" t="s">
         <v>404</v>
       </c>
@@ -37376,7 +37375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="2:4">
+    <row r="313" spans="1:4">
       <c r="B313" s="1" t="s">
         <v>403</v>
       </c>
@@ -37387,17 +37386,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="2:4">
+    <row r="317" spans="1:4">
+      <c r="A317" t="s">
+        <v>439</v>
+      </c>
       <c r="B317" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="318" spans="2:4">
+    <row r="318" spans="1:4">
       <c r="B318" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="319" spans="2:4">
+    <row r="319" spans="1:4">
       <c r="B319" s="1" t="s">
         <v>0</v>
       </c>
@@ -37408,7 +37410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="2:4">
+    <row r="320" spans="1:4">
       <c r="B320" s="1" t="s">
         <v>3</v>
       </c>
@@ -37419,7 +37421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="2:4">
       <c r="B321" s="1" t="s">
         <v>389</v>
       </c>
@@ -37430,7 +37432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="2:4">
       <c r="B322" s="1" t="s">
         <v>391</v>
       </c>
@@ -37441,7 +37443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="2:4">
       <c r="B323" s="1" t="s">
         <v>367</v>
       </c>
@@ -37452,7 +37454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="2:4">
       <c r="B324" s="1" t="s">
         <v>369</v>
       </c>
@@ -37463,7 +37465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="2:4">
       <c r="B325" s="1" t="s">
         <v>351</v>
       </c>
@@ -37474,7 +37476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="2:4">
       <c r="B326" s="1" t="s">
         <v>353</v>
       </c>
@@ -37485,7 +37487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="2:4">
       <c r="B327" s="1" t="s">
         <v>361</v>
       </c>
@@ -37496,10 +37498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
-      <c r="A328" t="s">
-        <v>439</v>
-      </c>
+    <row r="328" spans="2:4">
       <c r="B328" s="1" t="s">
         <v>4</v>
       </c>
@@ -37510,7 +37509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="2:4">
       <c r="B329" s="1" t="s">
         <v>355</v>
       </c>
@@ -37521,7 +37520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="2:4">
       <c r="B330" s="1" t="s">
         <v>457</v>
       </c>
@@ -37532,7 +37531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="2:4">
       <c r="B331" s="1" t="s">
         <v>411</v>
       </c>
@@ -37543,7 +37542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="2:4">
       <c r="B332" s="1" t="s">
         <v>448</v>
       </c>
@@ -37554,7 +37553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="2:4">
       <c r="B333" s="1" t="s">
         <v>10</v>
       </c>
@@ -37565,7 +37564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="2:4">
       <c r="B334" s="1" t="s">
         <v>11</v>
       </c>
@@ -37576,7 +37575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="2:4">
       <c r="B335" s="1" t="s">
         <v>283</v>
       </c>
@@ -37587,7 +37586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="2:4">
       <c r="B336" s="1" t="s">
         <v>412</v>
       </c>
@@ -37598,7 +37597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="2:4">
+    <row r="337" spans="1:4">
       <c r="B337" s="1" t="s">
         <v>434</v>
       </c>
@@ -37609,7 +37608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="2:4">
+    <row r="338" spans="1:4">
       <c r="B338" s="1" t="s">
         <v>428</v>
       </c>
@@ -37620,7 +37619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="2:4">
+    <row r="339" spans="1:4">
       <c r="B339" s="1" t="s">
         <v>432</v>
       </c>
@@ -37631,7 +37630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="2:4">
+    <row r="340" spans="1:4">
       <c r="B340" s="1" t="s">
         <v>6</v>
       </c>
@@ -37642,7 +37641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="2:4">
+    <row r="341" spans="1:4">
       <c r="B341" s="1" t="s">
         <v>403</v>
       </c>
@@ -37653,17 +37652,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="345" spans="2:4">
+    <row r="345" spans="1:4">
+      <c r="A345" t="s">
+        <v>439</v>
+      </c>
       <c r="B345" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="346" spans="2:4">
+    <row r="346" spans="1:4">
       <c r="B346" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="347" spans="2:4">
+    <row r="347" spans="1:4">
       <c r="B347" s="1" t="s">
         <v>0</v>
       </c>
@@ -37674,7 +37676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="2:4">
+    <row r="348" spans="1:4">
       <c r="B348" s="1" t="s">
         <v>3</v>
       </c>
@@ -37685,7 +37687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="2:4">
+    <row r="349" spans="1:4">
       <c r="B349" s="1" t="s">
         <v>149</v>
       </c>
@@ -37696,7 +37698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="2:4">
+    <row r="350" spans="1:4">
       <c r="B350" s="1" t="s">
         <v>391</v>
       </c>
@@ -37707,7 +37709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="351" spans="2:4">
+    <row r="351" spans="1:4">
       <c r="B351" s="1" t="s">
         <v>367</v>
       </c>
@@ -37718,7 +37720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="2:4">
+    <row r="352" spans="1:4">
       <c r="B352" s="1" t="s">
         <v>369</v>
       </c>
@@ -37729,7 +37731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="2:4">
       <c r="B353" s="1" t="s">
         <v>351</v>
       </c>
@@ -37740,7 +37742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="2:4">
       <c r="B354" s="1" t="s">
         <v>353</v>
       </c>
@@ -37751,7 +37753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="2:4">
       <c r="B355" s="1" t="s">
         <v>361</v>
       </c>
@@ -37762,7 +37764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="2:4">
       <c r="B356" s="1" t="s">
         <v>4</v>
       </c>
@@ -37773,10 +37775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
-      <c r="A357" t="s">
-        <v>439</v>
-      </c>
+    <row r="357" spans="2:4">
       <c r="B357" s="1" t="s">
         <v>355</v>
       </c>
@@ -37787,7 +37786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="2:4">
       <c r="B358" s="1" t="s">
         <v>457</v>
       </c>
@@ -37798,7 +37797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="2:4">
       <c r="B359" s="1" t="s">
         <v>411</v>
       </c>
@@ -37809,7 +37808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="2:4">
       <c r="B360" s="1" t="s">
         <v>10</v>
       </c>
@@ -37820,7 +37819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="2:4">
       <c r="B361" s="1" t="s">
         <v>11</v>
       </c>
@@ -37831,7 +37830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="2:4">
       <c r="B362" s="1" t="s">
         <v>12</v>
       </c>
@@ -37842,7 +37841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="2:4">
       <c r="B363" s="1" t="s">
         <v>283</v>
       </c>
@@ -37853,7 +37852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="2:4">
       <c r="B364" s="1" t="s">
         <v>412</v>
       </c>
@@ -37864,7 +37863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="2:4">
       <c r="B365" s="1" t="s">
         <v>434</v>
       </c>
@@ -37875,7 +37874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="2:4">
       <c r="B366" s="1" t="s">
         <v>429</v>
       </c>
@@ -37886,7 +37885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="2:4">
       <c r="B367" s="1" t="s">
         <v>432</v>
       </c>
@@ -37897,7 +37896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="2:4">
       <c r="B368" s="1" t="s">
         <v>6</v>
       </c>
@@ -37937,7 +37936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -41488,7 +41487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:J383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -45185,7 +45184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -45586,35 +45585,35 @@
   <sheetData>
     <row r="1" spans="1:5" ht="9" customHeight="1"/>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="108"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="112" t="s">
+      <c r="E3" s="98" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" customHeight="1" thickBot="1">
-      <c r="A4" s="111"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="113"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="99"/>
     </row>
     <row r="5" spans="1:5" ht="73.5" customHeight="1" thickBot="1">
       <c r="A5" s="3" t="s">
@@ -45646,10 +45645,10 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="100"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="8">
         <v>642436</v>
       </c>
@@ -45661,8 +45660,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A9" s="93"/>
-      <c r="B9" s="101"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="9">
         <v>642437</v>
       </c>
@@ -45674,8 +45673,8 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="93"/>
-      <c r="B10" s="101"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="9">
         <v>642438</v>
       </c>
@@ -45687,8 +45686,8 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="93"/>
-      <c r="B11" s="101"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="9">
         <v>642439</v>
       </c>
@@ -45700,10 +45699,10 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="101"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="9">
         <v>642440</v>
       </c>
@@ -45715,8 +45714,8 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="93"/>
-      <c r="B13" s="101"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="9">
         <v>642441</v>
       </c>
@@ -45728,8 +45727,8 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="93"/>
-      <c r="B14" s="101"/>
+      <c r="A14" s="106"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="9">
         <v>642442</v>
       </c>
@@ -45741,8 +45740,8 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="93"/>
-      <c r="B15" s="101"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="11">
         <v>642443</v>
       </c>
@@ -45754,10 +45753,10 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="101"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="9">
         <v>642444</v>
       </c>
@@ -45769,8 +45768,8 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="93"/>
-      <c r="B17" s="101"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="103"/>
       <c r="C17" s="9">
         <v>642445</v>
       </c>
@@ -45782,8 +45781,8 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="93"/>
-      <c r="B18" s="101"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="9">
         <v>642446</v>
       </c>
@@ -45795,8 +45794,8 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="93"/>
-      <c r="B19" s="101"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="9">
         <v>642447</v>
       </c>
@@ -45808,10 +45807,10 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="101"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="13" t="s">
         <v>75</v>
       </c>
@@ -45823,8 +45822,8 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="93"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="13" t="s">
         <v>76</v>
       </c>
@@ -45836,8 +45835,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1">
-      <c r="A22" s="94"/>
-      <c r="B22" s="102"/>
+      <c r="A22" s="107"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="14" t="s">
         <v>77</v>
       </c>
@@ -45861,10 +45860,10 @@
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="13.9" customHeight="1">
-      <c r="A25" s="107" t="s">
+      <c r="A25" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="100"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="8">
         <v>312797</v>
       </c>
@@ -45876,8 +45875,8 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="93"/>
-      <c r="B26" s="101"/>
+      <c r="A26" s="106"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="9">
         <v>312798</v>
       </c>
@@ -45889,8 +45888,8 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="93"/>
-      <c r="B27" s="101"/>
+      <c r="A27" s="106"/>
+      <c r="B27" s="103"/>
       <c r="C27" s="9">
         <v>312799</v>
       </c>
@@ -45902,8 +45901,8 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="93"/>
-      <c r="B28" s="101"/>
+      <c r="A28" s="106"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="9">
         <v>312800</v>
       </c>
@@ -45915,10 +45914,10 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="99" t="s">
+      <c r="A29" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="101"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="9">
         <v>312802</v>
       </c>
@@ -45930,8 +45929,8 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="93"/>
-      <c r="B30" s="101"/>
+      <c r="A30" s="106"/>
+      <c r="B30" s="103"/>
       <c r="C30" s="9">
         <v>312803</v>
       </c>
@@ -45943,8 +45942,8 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="93"/>
-      <c r="B31" s="101"/>
+      <c r="A31" s="106"/>
+      <c r="B31" s="103"/>
       <c r="C31" s="9">
         <v>312804</v>
       </c>
@@ -45956,8 +45955,8 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="93"/>
-      <c r="B32" s="101"/>
+      <c r="A32" s="106"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="9">
         <v>312805</v>
       </c>
@@ -45969,10 +45968,10 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="99" t="s">
+      <c r="A33" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="101"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="9">
         <v>312807</v>
       </c>
@@ -45984,8 +45983,8 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="93"/>
-      <c r="B34" s="101"/>
+      <c r="A34" s="106"/>
+      <c r="B34" s="103"/>
       <c r="C34" s="9">
         <v>312808</v>
       </c>
@@ -45997,8 +45996,8 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="93"/>
-      <c r="B35" s="101"/>
+      <c r="A35" s="106"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="9">
         <v>312809</v>
       </c>
@@ -46010,8 +46009,8 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="93"/>
-      <c r="B36" s="101"/>
+      <c r="A36" s="106"/>
+      <c r="B36" s="103"/>
       <c r="C36" s="9">
         <v>312810</v>
       </c>
@@ -46023,10 +46022,10 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="99" t="s">
+      <c r="A37" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="101"/>
+      <c r="B37" s="103"/>
       <c r="C37" s="9">
         <v>490442</v>
       </c>
@@ -46038,8 +46037,8 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="93"/>
-      <c r="B38" s="101"/>
+      <c r="A38" s="106"/>
+      <c r="B38" s="103"/>
       <c r="C38" s="9">
         <v>490441</v>
       </c>
@@ -46051,8 +46050,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" thickBot="1">
-      <c r="A39" s="94"/>
-      <c r="B39" s="102"/>
+      <c r="A39" s="107"/>
+      <c r="B39" s="104"/>
       <c r="C39" s="15">
         <v>490440</v>
       </c>
@@ -46071,7 +46070,7 @@
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" ht="51" customHeight="1">
-      <c r="A41" s="103" t="s">
+      <c r="A41" s="110" t="s">
         <v>82</v>
       </c>
       <c r="B41" s="18"/>
@@ -46086,7 +46085,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="48" customHeight="1" thickBot="1">
-      <c r="A42" s="104"/>
+      <c r="A42" s="111"/>
       <c r="B42" s="20"/>
       <c r="C42" s="15">
         <v>314417</v>
@@ -46105,10 +46104,10 @@
       <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A44" s="105" t="s">
+      <c r="A44" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="100"/>
+      <c r="B44" s="102"/>
       <c r="C44" s="8">
         <v>643863</v>
       </c>
@@ -46120,8 +46119,8 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="106"/>
-      <c r="B45" s="101"/>
+      <c r="A45" s="113"/>
+      <c r="B45" s="103"/>
       <c r="C45" s="9">
         <v>643864</v>
       </c>
@@ -46133,8 +46132,8 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="106"/>
-      <c r="B46" s="101"/>
+      <c r="A46" s="113"/>
+      <c r="B46" s="103"/>
       <c r="C46" s="9">
         <v>643865</v>
       </c>
@@ -46146,8 +46145,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" thickBot="1">
-      <c r="A47" s="104"/>
-      <c r="B47" s="102"/>
+      <c r="A47" s="111"/>
+      <c r="B47" s="104"/>
       <c r="C47" s="14" t="s">
         <v>89</v>
       </c>
@@ -46178,7 +46177,7 @@
       <c r="E49" s="29"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="107" t="s">
+      <c r="A50" s="114" t="s">
         <v>95</v>
       </c>
       <c r="B50" s="30" t="s">
@@ -46188,10 +46187,10 @@
         <v>642913</v>
       </c>
       <c r="D50" s="32"/>
-      <c r="E50" s="95"/>
+      <c r="E50" s="108"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="93"/>
+      <c r="A51" s="106"/>
       <c r="B51" s="33" t="s">
         <v>97</v>
       </c>
@@ -46199,10 +46198,10 @@
         <v>643863</v>
       </c>
       <c r="D51" s="32"/>
-      <c r="E51" s="96"/>
+      <c r="E51" s="109"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="93"/>
+      <c r="A52" s="106"/>
       <c r="B52" s="35" t="s">
         <v>98</v>
       </c>
@@ -46210,10 +46209,10 @@
         <v>206878</v>
       </c>
       <c r="D52" s="32"/>
-      <c r="E52" s="96"/>
+      <c r="E52" s="109"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="93"/>
+      <c r="A53" s="106"/>
       <c r="B53" s="35" t="s">
         <v>99</v>
       </c>
@@ -46221,10 +46220,10 @@
         <v>206894</v>
       </c>
       <c r="D53" s="32"/>
-      <c r="E53" s="96"/>
+      <c r="E53" s="109"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="99" t="s">
+      <c r="A54" s="105" t="s">
         <v>100</v>
       </c>
       <c r="B54" s="35" t="s">
@@ -46234,10 +46233,10 @@
         <v>642913</v>
       </c>
       <c r="D54" s="32"/>
-      <c r="E54" s="95"/>
+      <c r="E54" s="108"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="93"/>
+      <c r="A55" s="106"/>
       <c r="B55" s="35" t="s">
         <v>101</v>
       </c>
@@ -46245,10 +46244,10 @@
         <v>643864</v>
       </c>
       <c r="D55" s="32"/>
-      <c r="E55" s="96"/>
+      <c r="E55" s="109"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="93"/>
+      <c r="A56" s="106"/>
       <c r="B56" s="33" t="s">
         <v>102</v>
       </c>
@@ -46256,10 +46255,10 @@
         <v>315577</v>
       </c>
       <c r="D56" s="32"/>
-      <c r="E56" s="96"/>
+      <c r="E56" s="109"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="93"/>
+      <c r="A57" s="106"/>
       <c r="B57" s="33" t="s">
         <v>103</v>
       </c>
@@ -46267,10 +46266,10 @@
         <v>315578</v>
       </c>
       <c r="D57" s="32"/>
-      <c r="E57" s="96"/>
+      <c r="E57" s="109"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="93" t="s">
+      <c r="A58" s="106" t="s">
         <v>104</v>
       </c>
       <c r="B58" s="35" t="s">
@@ -46280,10 +46279,10 @@
         <v>642913</v>
       </c>
       <c r="D58" s="32"/>
-      <c r="E58" s="95"/>
+      <c r="E58" s="108"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="93"/>
+      <c r="A59" s="106"/>
       <c r="B59" s="35" t="s">
         <v>105</v>
       </c>
@@ -46291,10 +46290,10 @@
         <v>643865</v>
       </c>
       <c r="D59" s="32"/>
-      <c r="E59" s="96"/>
+      <c r="E59" s="109"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="93"/>
+      <c r="A60" s="106"/>
       <c r="B60" s="35" t="s">
         <v>106</v>
       </c>
@@ -46302,10 +46301,10 @@
         <v>242080</v>
       </c>
       <c r="D60" s="32"/>
-      <c r="E60" s="96"/>
+      <c r="E60" s="109"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="93"/>
+      <c r="A61" s="106"/>
       <c r="B61" s="35" t="s">
         <v>107</v>
       </c>
@@ -46313,10 +46312,10 @@
         <v>242073</v>
       </c>
       <c r="D61" s="32"/>
-      <c r="E61" s="96"/>
+      <c r="E61" s="109"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="99" t="s">
+      <c r="A62" s="105" t="s">
         <v>108</v>
       </c>
       <c r="B62" s="35" t="s">
@@ -46326,10 +46325,10 @@
         <v>642913</v>
       </c>
       <c r="D62" s="32"/>
-      <c r="E62" s="95"/>
+      <c r="E62" s="108"/>
     </row>
     <row r="63" spans="1:5" ht="13.9" customHeight="1">
-      <c r="A63" s="93"/>
+      <c r="A63" s="106"/>
       <c r="B63" s="35" t="s">
         <v>109</v>
       </c>
@@ -46337,10 +46336,10 @@
         <v>738957</v>
       </c>
       <c r="D63" s="32"/>
-      <c r="E63" s="95"/>
+      <c r="E63" s="108"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="93"/>
+      <c r="A64" s="106"/>
       <c r="B64" s="35" t="s">
         <v>110</v>
       </c>
@@ -46348,10 +46347,10 @@
         <v>490996</v>
       </c>
       <c r="D64" s="32"/>
-      <c r="E64" s="95"/>
+      <c r="E64" s="108"/>
     </row>
     <row r="65" spans="1:5" ht="15" thickBot="1">
-      <c r="A65" s="94"/>
+      <c r="A65" s="107"/>
       <c r="B65" s="36" t="s">
         <v>111</v>
       </c>
@@ -46359,10 +46358,10 @@
         <v>490999</v>
       </c>
       <c r="D65" s="32"/>
-      <c r="E65" s="95"/>
+      <c r="E65" s="108"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="98" t="s">
+      <c r="A66" s="115" t="s">
         <v>112</v>
       </c>
       <c r="B66" s="30" t="s">
@@ -46372,10 +46371,10 @@
         <v>642914</v>
       </c>
       <c r="D66" s="32"/>
-      <c r="E66" s="95"/>
+      <c r="E66" s="108"/>
     </row>
     <row r="67" spans="1:5" ht="13.9" customHeight="1">
-      <c r="A67" s="93"/>
+      <c r="A67" s="106"/>
       <c r="B67" s="35" t="s">
         <v>97</v>
       </c>
@@ -46383,10 +46382,10 @@
         <v>643863</v>
       </c>
       <c r="D67" s="32"/>
-      <c r="E67" s="96"/>
+      <c r="E67" s="109"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="93"/>
+      <c r="A68" s="106"/>
       <c r="B68" s="35" t="s">
         <v>114</v>
       </c>
@@ -46394,10 +46393,10 @@
         <v>206880</v>
       </c>
       <c r="D68" s="32"/>
-      <c r="E68" s="96"/>
+      <c r="E68" s="109"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="93"/>
+      <c r="A69" s="106"/>
       <c r="B69" s="35" t="s">
         <v>115</v>
       </c>
@@ -46405,10 +46404,10 @@
         <v>206896</v>
       </c>
       <c r="D69" s="32"/>
-      <c r="E69" s="96"/>
+      <c r="E69" s="109"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="93" t="s">
+      <c r="A70" s="106" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="35" t="s">
@@ -46418,10 +46417,10 @@
         <v>642914</v>
       </c>
       <c r="D70" s="32"/>
-      <c r="E70" s="95"/>
+      <c r="E70" s="108"/>
     </row>
     <row r="71" spans="1:5" ht="13.9" customHeight="1">
-      <c r="A71" s="93"/>
+      <c r="A71" s="106"/>
       <c r="B71" s="35" t="s">
         <v>101</v>
       </c>
@@ -46429,10 +46428,10 @@
         <v>643864</v>
       </c>
       <c r="D71" s="32"/>
-      <c r="E71" s="96"/>
+      <c r="E71" s="109"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="93"/>
+      <c r="A72" s="106"/>
       <c r="B72" s="35" t="s">
         <v>117</v>
       </c>
@@ -46440,10 +46439,10 @@
         <v>315579</v>
       </c>
       <c r="D72" s="32"/>
-      <c r="E72" s="96"/>
+      <c r="E72" s="109"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="93"/>
+      <c r="A73" s="106"/>
       <c r="B73" s="35" t="s">
         <v>118</v>
       </c>
@@ -46451,10 +46450,10 @@
         <v>315580</v>
       </c>
       <c r="D73" s="32"/>
-      <c r="E73" s="96"/>
+      <c r="E73" s="109"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="93" t="s">
+      <c r="A74" s="106" t="s">
         <v>119</v>
       </c>
       <c r="B74" s="35" t="s">
@@ -46464,10 +46463,10 @@
         <v>642914</v>
       </c>
       <c r="D74" s="32"/>
-      <c r="E74" s="95"/>
+      <c r="E74" s="108"/>
     </row>
     <row r="75" spans="1:5" ht="13.9" customHeight="1">
-      <c r="A75" s="93"/>
+      <c r="A75" s="106"/>
       <c r="B75" s="35" t="s">
         <v>105</v>
       </c>
@@ -46475,10 +46474,10 @@
         <v>643865</v>
       </c>
       <c r="D75" s="32"/>
-      <c r="E75" s="96"/>
+      <c r="E75" s="109"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="93"/>
+      <c r="A76" s="106"/>
       <c r="B76" s="35" t="s">
         <v>120</v>
       </c>
@@ -46486,10 +46485,10 @@
         <v>242081</v>
       </c>
       <c r="D76" s="32"/>
-      <c r="E76" s="96"/>
+      <c r="E76" s="109"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="93"/>
+      <c r="A77" s="106"/>
       <c r="B77" s="35" t="s">
         <v>121</v>
       </c>
@@ -46497,10 +46496,10 @@
         <v>242074</v>
       </c>
       <c r="D77" s="32"/>
-      <c r="E77" s="96"/>
+      <c r="E77" s="109"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="93" t="s">
+      <c r="A78" s="106" t="s">
         <v>122</v>
       </c>
       <c r="B78" s="35" t="s">
@@ -46510,10 +46509,10 @@
         <v>642914</v>
       </c>
       <c r="D78" s="32"/>
-      <c r="E78" s="95"/>
+      <c r="E78" s="108"/>
     </row>
     <row r="79" spans="1:5" ht="13.9" customHeight="1">
-      <c r="A79" s="93"/>
+      <c r="A79" s="106"/>
       <c r="B79" s="35" t="s">
         <v>109</v>
       </c>
@@ -46521,10 +46520,10 @@
         <v>738957</v>
       </c>
       <c r="D79" s="32"/>
-      <c r="E79" s="95"/>
+      <c r="E79" s="108"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="93"/>
+      <c r="A80" s="106"/>
       <c r="B80" s="35" t="s">
         <v>123</v>
       </c>
@@ -46532,10 +46531,10 @@
         <v>490997</v>
       </c>
       <c r="D80" s="32"/>
-      <c r="E80" s="95"/>
+      <c r="E80" s="108"/>
     </row>
     <row r="81" spans="1:5" ht="15" thickBot="1">
-      <c r="A81" s="94"/>
+      <c r="A81" s="107"/>
       <c r="B81" s="36" t="s">
         <v>124</v>
       </c>
@@ -46543,10 +46542,10 @@
         <v>491000</v>
       </c>
       <c r="D81" s="32"/>
-      <c r="E81" s="95"/>
+      <c r="E81" s="108"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="98" t="s">
+      <c r="A82" s="115" t="s">
         <v>125</v>
       </c>
       <c r="B82" s="30" t="s">
@@ -46556,10 +46555,10 @@
         <v>642915</v>
       </c>
       <c r="D82" s="32"/>
-      <c r="E82" s="95"/>
+      <c r="E82" s="108"/>
     </row>
     <row r="83" spans="1:5" ht="13.9" customHeight="1">
-      <c r="A83" s="93"/>
+      <c r="A83" s="106"/>
       <c r="B83" s="35" t="s">
         <v>97</v>
       </c>
@@ -46567,10 +46566,10 @@
         <v>643863</v>
       </c>
       <c r="D83" s="32"/>
-      <c r="E83" s="96"/>
+      <c r="E83" s="109"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="93"/>
+      <c r="A84" s="106"/>
       <c r="B84" s="35" t="s">
         <v>127</v>
       </c>
@@ -46578,10 +46577,10 @@
         <v>206884</v>
       </c>
       <c r="D84" s="32"/>
-      <c r="E84" s="96"/>
+      <c r="E84" s="109"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="93"/>
+      <c r="A85" s="106"/>
       <c r="B85" s="35" t="s">
         <v>128</v>
       </c>
@@ -46589,10 +46588,10 @@
         <v>206900</v>
       </c>
       <c r="D85" s="32"/>
-      <c r="E85" s="96"/>
+      <c r="E85" s="109"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="93" t="s">
+      <c r="A86" s="106" t="s">
         <v>129</v>
       </c>
       <c r="B86" s="35" t="s">
@@ -46602,10 +46601,10 @@
         <v>642915</v>
       </c>
       <c r="D86" s="32"/>
-      <c r="E86" s="95"/>
+      <c r="E86" s="108"/>
     </row>
     <row r="87" spans="1:5" ht="13.9" customHeight="1">
-      <c r="A87" s="93"/>
+      <c r="A87" s="106"/>
       <c r="B87" s="35" t="s">
         <v>101</v>
       </c>
@@ -46613,10 +46612,10 @@
         <v>643864</v>
       </c>
       <c r="D87" s="32"/>
-      <c r="E87" s="96"/>
+      <c r="E87" s="109"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="93"/>
+      <c r="A88" s="106"/>
       <c r="B88" s="35" t="s">
         <v>130</v>
       </c>
@@ -46624,10 +46623,10 @@
         <v>315581</v>
       </c>
       <c r="D88" s="32"/>
-      <c r="E88" s="96"/>
+      <c r="E88" s="109"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="93"/>
+      <c r="A89" s="106"/>
       <c r="B89" s="35" t="s">
         <v>131</v>
       </c>
@@ -46635,10 +46634,10 @@
         <v>315582</v>
       </c>
       <c r="D89" s="32"/>
-      <c r="E89" s="96"/>
+      <c r="E89" s="109"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="93" t="s">
+      <c r="A90" s="106" t="s">
         <v>132</v>
       </c>
       <c r="B90" s="35" t="s">
@@ -46648,10 +46647,10 @@
         <v>642915</v>
       </c>
       <c r="D90" s="32"/>
-      <c r="E90" s="95"/>
+      <c r="E90" s="108"/>
     </row>
     <row r="91" spans="1:5" ht="13.9" customHeight="1">
-      <c r="A91" s="93"/>
+      <c r="A91" s="106"/>
       <c r="B91" s="35" t="s">
         <v>105</v>
       </c>
@@ -46659,10 +46658,10 @@
         <v>643865</v>
       </c>
       <c r="D91" s="32"/>
-      <c r="E91" s="96"/>
+      <c r="E91" s="109"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="93"/>
+      <c r="A92" s="106"/>
       <c r="B92" s="35" t="s">
         <v>133</v>
       </c>
@@ -46670,10 +46669,10 @@
         <v>242082</v>
       </c>
       <c r="D92" s="32"/>
-      <c r="E92" s="96"/>
+      <c r="E92" s="109"/>
     </row>
     <row r="93" spans="1:5" ht="15" thickBot="1">
-      <c r="A93" s="94"/>
+      <c r="A93" s="107"/>
       <c r="B93" s="36" t="s">
         <v>134</v>
       </c>
@@ -46681,10 +46680,10 @@
         <v>242075</v>
       </c>
       <c r="D93" s="32"/>
-      <c r="E93" s="96"/>
+      <c r="E93" s="109"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="97" t="s">
+      <c r="A94" s="116" t="s">
         <v>135</v>
       </c>
       <c r="B94" s="38" t="s">
@@ -46694,10 +46693,10 @@
         <v>642916</v>
       </c>
       <c r="D94" s="32"/>
-      <c r="E94" s="95"/>
+      <c r="E94" s="108"/>
     </row>
     <row r="95" spans="1:5" ht="13.9" customHeight="1">
-      <c r="A95" s="93"/>
+      <c r="A95" s="106"/>
       <c r="B95" s="35" t="s">
         <v>97</v>
       </c>
@@ -46705,10 +46704,10 @@
         <v>643863</v>
       </c>
       <c r="D95" s="32"/>
-      <c r="E95" s="96"/>
+      <c r="E95" s="109"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="93"/>
+      <c r="A96" s="106"/>
       <c r="B96" s="35" t="s">
         <v>137</v>
       </c>
@@ -46716,10 +46715,10 @@
         <v>206882</v>
       </c>
       <c r="D96" s="32"/>
-      <c r="E96" s="96"/>
+      <c r="E96" s="109"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="93"/>
+      <c r="A97" s="106"/>
       <c r="B97" s="35" t="s">
         <v>138</v>
       </c>
@@ -46727,10 +46726,10 @@
         <v>206898</v>
       </c>
       <c r="D97" s="32"/>
-      <c r="E97" s="96"/>
+      <c r="E97" s="109"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="93" t="s">
+      <c r="A98" s="106" t="s">
         <v>139</v>
       </c>
       <c r="B98" s="35" t="s">
@@ -46740,10 +46739,10 @@
         <v>642916</v>
       </c>
       <c r="D98" s="32"/>
-      <c r="E98" s="95"/>
+      <c r="E98" s="108"/>
     </row>
     <row r="99" spans="1:5" ht="13.9" customHeight="1">
-      <c r="A99" s="93"/>
+      <c r="A99" s="106"/>
       <c r="B99" s="35" t="s">
         <v>101</v>
       </c>
@@ -46751,10 +46750,10 @@
         <v>643864</v>
       </c>
       <c r="D99" s="32"/>
-      <c r="E99" s="95"/>
+      <c r="E99" s="108"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="93"/>
+      <c r="A100" s="106"/>
       <c r="B100" s="35" t="s">
         <v>140</v>
       </c>
@@ -46762,10 +46761,10 @@
         <v>315584</v>
       </c>
       <c r="D100" s="32"/>
-      <c r="E100" s="95"/>
+      <c r="E100" s="108"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="93"/>
+      <c r="A101" s="106"/>
       <c r="B101" s="35" t="s">
         <v>141</v>
       </c>
@@ -46773,10 +46772,10 @@
         <v>315585</v>
       </c>
       <c r="D101" s="32"/>
-      <c r="E101" s="95"/>
+      <c r="E101" s="108"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="93" t="s">
+      <c r="A102" s="106" t="s">
         <v>142</v>
       </c>
       <c r="B102" s="35" t="s">
@@ -46786,10 +46785,10 @@
         <v>642916</v>
       </c>
       <c r="D102" s="32"/>
-      <c r="E102" s="95"/>
+      <c r="E102" s="108"/>
     </row>
     <row r="103" spans="1:5" ht="13.9" customHeight="1">
-      <c r="A103" s="93"/>
+      <c r="A103" s="106"/>
       <c r="B103" s="35" t="s">
         <v>105</v>
       </c>
@@ -46797,10 +46796,10 @@
         <v>643865</v>
       </c>
       <c r="D103" s="32"/>
-      <c r="E103" s="95"/>
+      <c r="E103" s="108"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="93"/>
+      <c r="A104" s="106"/>
       <c r="B104" s="35" t="s">
         <v>143</v>
       </c>
@@ -46808,10 +46807,10 @@
         <v>242083</v>
       </c>
       <c r="D104" s="32"/>
-      <c r="E104" s="95"/>
+      <c r="E104" s="108"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="93"/>
+      <c r="A105" s="106"/>
       <c r="B105" s="35" t="s">
         <v>144</v>
       </c>
@@ -46819,10 +46818,10 @@
         <v>242078</v>
       </c>
       <c r="D105" s="32"/>
-      <c r="E105" s="95"/>
+      <c r="E105" s="108"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="93" t="s">
+      <c r="A106" s="106" t="s">
         <v>145</v>
       </c>
       <c r="B106" s="35" t="s">
@@ -46832,10 +46831,10 @@
         <v>642916</v>
       </c>
       <c r="D106" s="32"/>
-      <c r="E106" s="95"/>
+      <c r="E106" s="108"/>
     </row>
     <row r="107" spans="1:5" ht="13.9" customHeight="1">
-      <c r="A107" s="93"/>
+      <c r="A107" s="106"/>
       <c r="B107" s="35" t="s">
         <v>109</v>
       </c>
@@ -46843,10 +46842,10 @@
         <v>738957</v>
       </c>
       <c r="D107" s="32"/>
-      <c r="E107" s="95"/>
+      <c r="E107" s="108"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="93"/>
+      <c r="A108" s="106"/>
       <c r="B108" s="35" t="s">
         <v>146</v>
       </c>
@@ -46854,10 +46853,10 @@
         <v>490998</v>
       </c>
       <c r="D108" s="32"/>
-      <c r="E108" s="95"/>
+      <c r="E108" s="108"/>
     </row>
     <row r="109" spans="1:5" ht="15" thickBot="1">
-      <c r="A109" s="94"/>
+      <c r="A109" s="107"/>
       <c r="B109" s="36" t="s">
         <v>147</v>
       </c>
@@ -46865,17 +46864,39 @@
         <v>491001</v>
       </c>
       <c r="D109" s="32"/>
-      <c r="E109" s="95"/>
+      <c r="E109" s="108"/>
     </row>
   </sheetData>
   <sheetProtection password="CC01" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="49">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="E54:E57"/>
     <mergeCell ref="B8:B22"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
@@ -46891,34 +46912,12 @@
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="259" scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -46932,7 +46931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
@@ -47328,41 +47327,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="40.15" customHeight="1" thickBot="1">
-      <c r="A1" s="108"/>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
+      <c r="A1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:5" ht="13.9" customHeight="1">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="119" t="s">
+      <c r="C2" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="112" t="s">
+      <c r="E2" s="98" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1">
-      <c r="A3" s="111"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="113"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="99"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="120"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="8" t="s">
         <v>223</v>
       </c>
@@ -47377,7 +47376,7 @@
       <c r="A5" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="121"/>
+      <c r="B5" s="122"/>
       <c r="C5" s="9" t="s">
         <v>224</v>
       </c>
@@ -47392,7 +47391,7 @@
       <c r="A6" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="121"/>
+      <c r="B6" s="122"/>
       <c r="C6" s="9" t="s">
         <v>225</v>
       </c>
@@ -47407,7 +47406,7 @@
       <c r="A7" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="121"/>
+      <c r="B7" s="122"/>
       <c r="C7" s="12" t="s">
         <v>342</v>
       </c>
@@ -47420,7 +47419,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="89"/>
-      <c r="B8" s="121"/>
+      <c r="B8" s="122"/>
       <c r="C8" s="53" t="s">
         <v>390</v>
       </c>
@@ -47433,7 +47432,7 @@
       <c r="A9" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="122"/>
+      <c r="B9" s="123"/>
       <c r="C9" s="15" t="s">
         <v>226</v>
       </c>
@@ -47455,7 +47454,7 @@
       <c r="A11" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="48" t="s">
         <v>227</v>
       </c>
@@ -47470,7 +47469,7 @@
       <c r="A12" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B12" s="101"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="10" t="s">
         <v>228</v>
       </c>
@@ -47485,7 +47484,7 @@
       <c r="A13" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="101"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="10" t="s">
         <v>229</v>
       </c>
@@ -47500,7 +47499,7 @@
       <c r="A14" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="124"/>
+      <c r="B14" s="125"/>
       <c r="C14" s="53" t="s">
         <v>341</v>
       </c>
@@ -47513,7 +47512,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="52"/>
-      <c r="B15" s="124"/>
+      <c r="B15" s="125"/>
       <c r="C15" s="53" t="s">
         <v>392</v>
       </c>
@@ -47526,7 +47525,7 @@
       <c r="A16" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="124"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="55" t="s">
         <v>230</v>
       </c>
@@ -47541,7 +47540,7 @@
       <c r="A17" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="123"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="48">
         <v>737260</v>
       </c>
@@ -47556,7 +47555,7 @@
       <c r="A18" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="101"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="10">
         <v>737261</v>
       </c>
@@ -47571,7 +47570,7 @@
       <c r="A19" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="10">
         <v>737262</v>
       </c>
@@ -47586,7 +47585,7 @@
       <c r="A20" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="B20" s="124"/>
+      <c r="B20" s="125"/>
       <c r="C20" s="53">
         <v>739898</v>
       </c>
@@ -47601,7 +47600,7 @@
       <c r="A21" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="102"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="16">
         <v>737263</v>
       </c>
@@ -47620,10 +47619,10 @@
       <c r="E22" s="61"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="125" t="s">
+      <c r="A23" s="126" t="s">
         <v>164</v>
       </c>
-      <c r="B23" s="128"/>
+      <c r="B23" s="129"/>
       <c r="C23" s="62">
         <v>734522</v>
       </c>
@@ -47635,8 +47634,8 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="126"/>
-      <c r="B24" s="129"/>
+      <c r="A24" s="127"/>
+      <c r="B24" s="130"/>
       <c r="C24" s="13">
         <v>734523</v>
       </c>
@@ -47648,8 +47647,8 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="126"/>
-      <c r="B25" s="129"/>
+      <c r="A25" s="127"/>
+      <c r="B25" s="130"/>
       <c r="C25" s="13">
         <v>734524</v>
       </c>
@@ -47661,8 +47660,8 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="126"/>
-      <c r="B26" s="129"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="13">
         <v>739899</v>
       </c>
@@ -47674,8 +47673,8 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="126"/>
-      <c r="B27" s="129"/>
+      <c r="A27" s="127"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="13">
         <v>739906</v>
       </c>
@@ -47687,8 +47686,8 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="126"/>
-      <c r="B28" s="129"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="13">
         <v>734525</v>
       </c>
@@ -47700,8 +47699,8 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="126"/>
-      <c r="B29" s="129"/>
+      <c r="A29" s="127"/>
+      <c r="B29" s="130"/>
       <c r="C29" s="13">
         <v>734526</v>
       </c>
@@ -47713,8 +47712,8 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="126"/>
-      <c r="B30" s="129"/>
+      <c r="A30" s="127"/>
+      <c r="B30" s="130"/>
       <c r="C30" s="13">
         <v>734527</v>
       </c>
@@ -47726,8 +47725,8 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="126"/>
-      <c r="B31" s="129"/>
+      <c r="A31" s="127"/>
+      <c r="B31" s="130"/>
       <c r="C31" s="66">
         <v>734528</v>
       </c>
@@ -47739,8 +47738,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" thickBot="1">
-      <c r="A32" s="127"/>
-      <c r="B32" s="130"/>
+      <c r="A32" s="128"/>
+      <c r="B32" s="131"/>
       <c r="C32" s="14">
         <v>739900</v>
       </c>
@@ -47759,10 +47758,10 @@
       <c r="E33" s="70"/>
     </row>
     <row r="34" spans="1:5" ht="39.6" customHeight="1">
-      <c r="A34" s="107" t="s">
+      <c r="A34" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="B34" s="116"/>
+      <c r="B34" s="117"/>
       <c r="C34" s="71">
         <v>734492</v>
       </c>
@@ -47774,8 +47773,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="42" customHeight="1" thickBot="1">
-      <c r="A35" s="94"/>
-      <c r="B35" s="117"/>
+      <c r="A35" s="107"/>
+      <c r="B35" s="118"/>
       <c r="C35" s="73">
         <v>734493</v>
       </c>
@@ -47813,7 +47812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -48162,34 +48161,34 @@
       <c r="E2" s="77"/>
     </row>
     <row r="3" spans="1:5" ht="13.9" customHeight="1">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="131" t="s">
+      <c r="D3" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="133" t="s">
+      <c r="E3" s="134" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1">
-      <c r="A4" s="161"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="134"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="135"/>
     </row>
     <row r="5" spans="1:5" ht="13.9" customHeight="1">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="154" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="157"/>
+      <c r="B5" s="158"/>
       <c r="C5" s="78">
         <v>733366</v>
       </c>
@@ -48201,8 +48200,8 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="137"/>
-      <c r="B6" s="139"/>
+      <c r="A6" s="138"/>
+      <c r="B6" s="140"/>
       <c r="C6" s="79">
         <v>733367</v>
       </c>
@@ -48214,8 +48213,8 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="137"/>
-      <c r="B7" s="139"/>
+      <c r="A7" s="138"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="79">
         <v>733368</v>
       </c>
@@ -48227,8 +48226,8 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="137"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="138"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="79">
         <v>733372</v>
       </c>
@@ -48240,8 +48239,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.9" customHeight="1">
-      <c r="A9" s="137"/>
-      <c r="B9" s="139"/>
+      <c r="A9" s="138"/>
+      <c r="B9" s="140"/>
       <c r="C9" s="79">
         <v>733373</v>
       </c>
@@ -48253,8 +48252,8 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="154"/>
-      <c r="B10" s="139"/>
+      <c r="A10" s="155"/>
+      <c r="B10" s="140"/>
       <c r="C10" s="79">
         <v>733369</v>
       </c>
@@ -48266,8 +48265,8 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="154"/>
-      <c r="B11" s="139"/>
+      <c r="A11" s="155"/>
+      <c r="B11" s="140"/>
       <c r="C11" s="79">
         <v>733370</v>
       </c>
@@ -48279,8 +48278,8 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="154"/>
-      <c r="B12" s="139"/>
+      <c r="A12" s="155"/>
+      <c r="B12" s="140"/>
       <c r="C12" s="79">
         <v>733371</v>
       </c>
@@ -48292,8 +48291,8 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="155"/>
-      <c r="B13" s="158"/>
+      <c r="A13" s="156"/>
+      <c r="B13" s="159"/>
       <c r="C13" s="79">
         <v>738894</v>
       </c>
@@ -48305,8 +48304,8 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="156"/>
-      <c r="B14" s="159"/>
+      <c r="A14" s="157"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="80">
         <v>738905</v>
       </c>
@@ -48318,10 +48317,10 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="137" t="s">
+      <c r="A15" s="138" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="139"/>
+      <c r="B15" s="140"/>
       <c r="C15" s="79">
         <v>734522</v>
       </c>
@@ -48333,8 +48332,8 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="137"/>
-      <c r="B16" s="139"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="140"/>
       <c r="C16" s="79">
         <v>734523</v>
       </c>
@@ -48346,8 +48345,8 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="137"/>
-      <c r="B17" s="139"/>
+      <c r="A17" s="138"/>
+      <c r="B17" s="140"/>
       <c r="C17" s="79">
         <v>734524</v>
       </c>
@@ -48359,8 +48358,8 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="137"/>
-      <c r="B18" s="139"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="140"/>
       <c r="C18" s="79">
         <v>734525</v>
       </c>
@@ -48372,8 +48371,8 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="137"/>
-      <c r="B19" s="139"/>
+      <c r="A19" s="138"/>
+      <c r="B19" s="140"/>
       <c r="C19" s="79">
         <v>734526</v>
       </c>
@@ -48385,8 +48384,8 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="137"/>
-      <c r="B20" s="139"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="140"/>
       <c r="C20" s="79">
         <v>734527</v>
       </c>
@@ -48398,8 +48397,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1">
-      <c r="A21" s="138"/>
-      <c r="B21" s="140"/>
+      <c r="A21" s="139"/>
+      <c r="B21" s="141"/>
       <c r="C21" s="81">
         <v>734528</v>
       </c>
@@ -48411,10 +48410,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="13.9" customHeight="1">
-      <c r="A22" s="141" t="s">
+      <c r="A22" s="142" t="s">
         <v>196</v>
       </c>
-      <c r="B22" s="143"/>
+      <c r="B22" s="144"/>
       <c r="C22" s="82">
         <v>733491</v>
       </c>
@@ -48426,8 +48425,8 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="137"/>
-      <c r="B23" s="139"/>
+      <c r="A23" s="138"/>
+      <c r="B23" s="140"/>
       <c r="C23" s="79">
         <v>733492</v>
       </c>
@@ -48439,8 +48438,8 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="137"/>
-      <c r="B24" s="139"/>
+      <c r="A24" s="138"/>
+      <c r="B24" s="140"/>
       <c r="C24" s="79">
         <v>733493</v>
       </c>
@@ -48452,8 +48451,8 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="137"/>
-      <c r="B25" s="139"/>
+      <c r="A25" s="138"/>
+      <c r="B25" s="140"/>
       <c r="C25" s="79">
         <v>733494</v>
       </c>
@@ -48465,8 +48464,8 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="137"/>
-      <c r="B26" s="139"/>
+      <c r="A26" s="138"/>
+      <c r="B26" s="140"/>
       <c r="C26" s="79">
         <v>734463</v>
       </c>
@@ -48478,8 +48477,8 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="137"/>
-      <c r="B27" s="139"/>
+      <c r="A27" s="138"/>
+      <c r="B27" s="140"/>
       <c r="C27" s="79">
         <v>734492</v>
       </c>
@@ -48491,8 +48490,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" thickBot="1">
-      <c r="A28" s="142"/>
-      <c r="B28" s="144"/>
+      <c r="A28" s="143"/>
+      <c r="B28" s="145"/>
       <c r="C28" s="80">
         <v>734493</v>
       </c>
@@ -48504,10 +48503,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1">
-      <c r="A29" s="145" t="s">
+      <c r="A29" s="146" t="s">
         <v>205</v>
       </c>
-      <c r="B29" s="149"/>
+      <c r="B29" s="150"/>
       <c r="C29" s="78">
         <v>734361</v>
       </c>
@@ -48519,8 +48518,8 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="146"/>
-      <c r="B30" s="150"/>
+      <c r="A30" s="147"/>
+      <c r="B30" s="151"/>
       <c r="C30" s="79">
         <v>734362</v>
       </c>
@@ -48532,8 +48531,8 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="146"/>
-      <c r="B31" s="150"/>
+      <c r="A31" s="147"/>
+      <c r="B31" s="151"/>
       <c r="C31" s="79">
         <v>734363</v>
       </c>
@@ -48545,8 +48544,8 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="146"/>
-      <c r="B32" s="150"/>
+      <c r="A32" s="147"/>
+      <c r="B32" s="151"/>
       <c r="C32" s="79">
         <v>734364</v>
       </c>
@@ -48558,8 +48557,8 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="146"/>
-      <c r="B33" s="150"/>
+      <c r="A33" s="147"/>
+      <c r="B33" s="151"/>
       <c r="C33" s="79">
         <v>734365</v>
       </c>
@@ -48571,8 +48570,8 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="146"/>
-      <c r="B34" s="150"/>
+      <c r="A34" s="147"/>
+      <c r="B34" s="151"/>
       <c r="C34" s="79">
         <v>734366</v>
       </c>
@@ -48584,8 +48583,8 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="146"/>
-      <c r="B35" s="150"/>
+      <c r="A35" s="147"/>
+      <c r="B35" s="151"/>
       <c r="C35" s="79">
         <v>734367</v>
       </c>
@@ -48597,8 +48596,8 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="146"/>
-      <c r="B36" s="150"/>
+      <c r="A36" s="147"/>
+      <c r="B36" s="151"/>
       <c r="C36" s="79">
         <v>734368</v>
       </c>
@@ -48610,8 +48609,8 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="146"/>
-      <c r="B37" s="150"/>
+      <c r="A37" s="147"/>
+      <c r="B37" s="151"/>
       <c r="C37" s="79">
         <v>734369</v>
       </c>
@@ -48623,8 +48622,8 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="146"/>
-      <c r="B38" s="150"/>
+      <c r="A38" s="147"/>
+      <c r="B38" s="151"/>
       <c r="C38" s="79">
         <v>734370</v>
       </c>
@@ -48636,8 +48635,8 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="146"/>
-      <c r="B39" s="150"/>
+      <c r="A39" s="147"/>
+      <c r="B39" s="151"/>
       <c r="C39" s="79">
         <v>734371</v>
       </c>
@@ -48649,8 +48648,8 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="146"/>
-      <c r="B40" s="150"/>
+      <c r="A40" s="147"/>
+      <c r="B40" s="151"/>
       <c r="C40" s="79">
         <v>734372</v>
       </c>
@@ -48662,8 +48661,8 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="146"/>
-      <c r="B41" s="150"/>
+      <c r="A41" s="147"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="79">
         <v>734373</v>
       </c>
@@ -48675,8 +48674,8 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="146"/>
-      <c r="B42" s="150"/>
+      <c r="A42" s="147"/>
+      <c r="B42" s="151"/>
       <c r="C42" s="79">
         <v>734374</v>
       </c>
@@ -48688,8 +48687,8 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="146"/>
-      <c r="B43" s="150"/>
+      <c r="A43" s="147"/>
+      <c r="B43" s="151"/>
       <c r="C43" s="79">
         <v>734375</v>
       </c>
@@ -48701,8 +48700,8 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="146"/>
-      <c r="B44" s="150"/>
+      <c r="A44" s="147"/>
+      <c r="B44" s="151"/>
       <c r="C44" s="79">
         <v>734310</v>
       </c>
@@ -48714,8 +48713,8 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="147"/>
-      <c r="B45" s="151"/>
+      <c r="A45" s="148"/>
+      <c r="B45" s="152"/>
       <c r="C45" s="79">
         <v>738914</v>
       </c>
@@ -48727,8 +48726,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" thickBot="1">
-      <c r="A46" s="148"/>
-      <c r="B46" s="152"/>
+      <c r="A46" s="149"/>
+      <c r="B46" s="153"/>
       <c r="C46" s="81">
         <v>738915</v>
       </c>
@@ -48740,10 +48739,10 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="135" t="s">
+      <c r="A47" s="136" t="s">
         <v>214</v>
       </c>
-      <c r="B47" s="136"/>
+      <c r="B47" s="137"/>
       <c r="C47" s="82">
         <v>312831</v>
       </c>
@@ -48755,8 +48754,8 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="93"/>
-      <c r="B48" s="101"/>
+      <c r="A48" s="106"/>
+      <c r="B48" s="103"/>
       <c r="C48" s="79">
         <v>312832</v>
       </c>
@@ -48768,8 +48767,8 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="93"/>
-      <c r="B49" s="101"/>
+      <c r="A49" s="106"/>
+      <c r="B49" s="103"/>
       <c r="C49" s="79">
         <v>312833</v>
       </c>
@@ -48781,8 +48780,8 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="93"/>
-      <c r="B50" s="101"/>
+      <c r="A50" s="106"/>
+      <c r="B50" s="103"/>
       <c r="C50" s="79">
         <v>337802</v>
       </c>
@@ -48794,8 +48793,8 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="93"/>
-      <c r="B51" s="101"/>
+      <c r="A51" s="106"/>
+      <c r="B51" s="103"/>
       <c r="C51" s="79">
         <v>312834</v>
       </c>
@@ -48807,8 +48806,8 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="93"/>
-      <c r="B52" s="101"/>
+      <c r="A52" s="106"/>
+      <c r="B52" s="103"/>
       <c r="C52" s="79">
         <v>312835</v>
       </c>
@@ -48820,8 +48819,8 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="93"/>
-      <c r="B53" s="101"/>
+      <c r="A53" s="106"/>
+      <c r="B53" s="103"/>
       <c r="C53" s="79">
         <v>312836</v>
       </c>
@@ -48833,8 +48832,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" thickBot="1">
-      <c r="A54" s="94"/>
-      <c r="B54" s="102"/>
+      <c r="A54" s="107"/>
+      <c r="B54" s="104"/>
       <c r="C54" s="81">
         <v>337803</v>
       </c>
@@ -48876,10 +48875,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:E357"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A117" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -52283,7 +52282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:E140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -53115,7 +53114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -53423,10 +53422,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:E357"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A132" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -56829,11 +56828,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:E344"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -60092,10 +60091,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:G356"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -63553,11 +63552,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:E357"/>
   <sheetViews>
-    <sheetView topLeftCell="A336" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B347" sqref="B347:D347"/>
+    <sheetView topLeftCell="A273" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A333" sqref="A333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -63838,14 +63837,14 @@
       </c>
     </row>
     <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>439</v>
+      </c>
       <c r="B31" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>439</v>
-      </c>
       <c r="B32" t="s">
         <v>36</v>
       </c>
@@ -64093,6 +64092,9 @@
       </c>
     </row>
     <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>439</v>
+      </c>
       <c r="B58" t="s">
         <v>441</v>
       </c>
@@ -64103,9 +64105,6 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>439</v>
-      </c>
       <c r="B60" s="1" t="s">
         <v>0</v>
       </c>
@@ -64359,6 +64358,9 @@
       </c>
     </row>
     <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>439</v>
+      </c>
       <c r="B84" t="s">
         <v>442</v>
       </c>
@@ -64380,9 +64382,6 @@
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>439</v>
-      </c>
       <c r="B87" s="1" t="s">
         <v>3</v>
       </c>
@@ -64880,6 +64879,9 @@
       </c>
     </row>
     <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>439</v>
+      </c>
       <c r="B138" t="s">
         <v>442</v>
       </c>
@@ -64923,9 +64925,6 @@
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" t="s">
-        <v>439</v>
-      </c>
       <c r="B143" s="1" t="s">
         <v>391</v>
       </c>
@@ -65135,6 +65134,9 @@
       </c>
     </row>
     <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>439</v>
+      </c>
       <c r="B167" t="s">
         <v>443</v>
       </c>
@@ -65190,9 +65192,6 @@
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" t="s">
-        <v>439</v>
-      </c>
       <c r="B173" s="1" t="s">
         <v>367</v>
       </c>
@@ -65391,6 +65390,9 @@
       </c>
     </row>
     <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>439</v>
+      </c>
       <c r="B197" t="s">
         <v>443</v>
       </c>
@@ -65457,9 +65459,6 @@
       </c>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" t="s">
-        <v>439</v>
-      </c>
       <c r="B204" s="1" t="s">
         <v>369</v>
       </c>
@@ -65514,7 +65513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="2:4">
+    <row r="209" spans="1:4">
       <c r="B209" s="1" t="s">
         <v>355</v>
       </c>
@@ -65525,7 +65524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="2:4">
+    <row r="210" spans="1:4">
       <c r="B210" s="1" t="s">
         <v>457</v>
       </c>
@@ -65536,7 +65535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="2:4">
+    <row r="211" spans="1:4">
       <c r="B211" s="1" t="s">
         <v>411</v>
       </c>
@@ -65547,7 +65546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="2:4">
+    <row r="212" spans="1:4">
       <c r="B212" s="1" t="s">
         <v>10</v>
       </c>
@@ -65558,7 +65557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="2:4">
+    <row r="213" spans="1:4">
       <c r="B213" s="1" t="s">
         <v>12</v>
       </c>
@@ -65569,7 +65568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="2:4">
+    <row r="214" spans="1:4">
       <c r="B214" s="1" t="s">
         <v>11</v>
       </c>
@@ -65580,7 +65579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="2:4">
+    <row r="215" spans="1:4">
       <c r="B215" s="1" t="s">
         <v>283</v>
       </c>
@@ -65591,7 +65590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="2:4">
+    <row r="216" spans="1:4">
       <c r="B216" s="1" t="s">
         <v>412</v>
       </c>
@@ -65602,7 +65601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="2:4">
+    <row r="217" spans="1:4">
       <c r="B217" s="1" t="s">
         <v>320</v>
       </c>
@@ -65613,7 +65612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:4">
+    <row r="218" spans="1:4">
       <c r="B218" s="1" t="s">
         <v>428</v>
       </c>
@@ -65624,7 +65623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="2:4">
+    <row r="219" spans="1:4">
       <c r="B219" s="1" t="s">
         <v>6</v>
       </c>
@@ -65635,7 +65634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="2:4">
+    <row r="220" spans="1:4">
       <c r="B220" s="1" t="s">
         <v>404</v>
       </c>
@@ -65646,7 +65645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="2:4">
+    <row r="221" spans="1:4">
       <c r="B221" s="1" t="s">
         <v>403</v>
       </c>
@@ -65657,12 +65656,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="2:4">
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>439</v>
+      </c>
       <c r="B224" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="2:4">
       <c r="B225" t="s">
         <v>306</v>
       </c>
@@ -65670,7 +65672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="2:4">
       <c r="B226" s="1" t="s">
         <v>0</v>
       </c>
@@ -65679,7 +65681,7 @@
       </c>
       <c r="D226" s="1"/>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="2:4">
       <c r="B227" s="1" t="s">
         <v>3</v>
       </c>
@@ -65690,7 +65692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="2:4">
       <c r="B228" s="1" t="s">
         <v>389</v>
       </c>
@@ -65701,7 +65703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="2:4">
       <c r="B229" s="1" t="s">
         <v>391</v>
       </c>
@@ -65712,7 +65714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="2:4">
       <c r="B230" s="1" t="s">
         <v>367</v>
       </c>
@@ -65723,7 +65725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="2:4">
       <c r="B231" s="1" t="s">
         <v>369</v>
       </c>
@@ -65734,10 +65736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
-      <c r="A232" t="s">
-        <v>439</v>
-      </c>
+    <row r="232" spans="2:4">
       <c r="B232" s="1" t="s">
         <v>351</v>
       </c>
@@ -65748,7 +65747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="2:4">
       <c r="B233" s="1" t="s">
         <v>353</v>
       </c>
@@ -65759,7 +65758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="2:4">
       <c r="B234" s="1" t="s">
         <v>361</v>
       </c>
@@ -65770,7 +65769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="2:4">
       <c r="B235" s="1" t="s">
         <v>4</v>
       </c>
@@ -65781,7 +65780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="2:4">
       <c r="B236" s="1" t="s">
         <v>355</v>
       </c>
@@ -65792,7 +65791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="2:4">
       <c r="B237" s="1" t="s">
         <v>457</v>
       </c>
@@ -65803,7 +65802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="2:4">
       <c r="B238" s="1" t="s">
         <v>411</v>
       </c>
@@ -65814,7 +65813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="2:4">
       <c r="B239" s="1" t="s">
         <v>10</v>
       </c>
@@ -65825,7 +65824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="2:4">
       <c r="B240" s="1" t="s">
         <v>12</v>
       </c>
@@ -65836,7 +65835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="2:4">
+    <row r="241" spans="1:4">
       <c r="B241" s="1" t="s">
         <v>11</v>
       </c>
@@ -65847,7 +65846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="2:4">
+    <row r="242" spans="1:4">
       <c r="B242" s="1" t="s">
         <v>283</v>
       </c>
@@ -65858,7 +65857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="2:4">
+    <row r="243" spans="1:4">
       <c r="B243" s="1" t="s">
         <v>412</v>
       </c>
@@ -65869,7 +65868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="2:4">
+    <row r="244" spans="1:4">
       <c r="B244" s="1" t="s">
         <v>320</v>
       </c>
@@ -65880,7 +65879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="2:4">
+    <row r="245" spans="1:4">
       <c r="B245" s="1" t="s">
         <v>428</v>
       </c>
@@ -65891,7 +65890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="2:4">
+    <row r="246" spans="1:4">
       <c r="B246" s="1" t="s">
         <v>6</v>
       </c>
@@ -65902,7 +65901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="2:4">
+    <row r="247" spans="1:4">
       <c r="B247" s="1" t="s">
         <v>403</v>
       </c>
@@ -65913,12 +65912,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="2:4">
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>439</v>
+      </c>
       <c r="B251" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="252" spans="2:4">
+    <row r="252" spans="1:4">
       <c r="B252" t="s">
         <v>418</v>
       </c>
@@ -65926,7 +65928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="2:4">
+    <row r="253" spans="1:4">
       <c r="B253" s="1" t="s">
         <v>0</v>
       </c>
@@ -65935,7 +65937,7 @@
       </c>
       <c r="D253" s="1"/>
     </row>
-    <row r="254" spans="2:4">
+    <row r="254" spans="1:4">
       <c r="B254" s="1" t="s">
         <v>3</v>
       </c>
@@ -65946,7 +65948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="2:4">
+    <row r="255" spans="1:4">
       <c r="B255" s="1" t="s">
         <v>389</v>
       </c>
@@ -65957,7 +65959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="2:4">
+    <row r="256" spans="1:4">
       <c r="B256" s="1" t="s">
         <v>391</v>
       </c>
@@ -65968,7 +65970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="2:4">
       <c r="B257" s="1" t="s">
         <v>367</v>
       </c>
@@ -65979,7 +65981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="2:4">
       <c r="B258" s="1" t="s">
         <v>369</v>
       </c>
@@ -65990,7 +65992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="2:4">
       <c r="B259" s="1" t="s">
         <v>351</v>
       </c>
@@ -66001,10 +66003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
-      <c r="A260" t="s">
-        <v>439</v>
-      </c>
+    <row r="260" spans="2:4">
       <c r="B260" s="1" t="s">
         <v>353</v>
       </c>
@@ -66015,7 +66014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="2:4">
       <c r="B261" s="1" t="s">
         <v>361</v>
       </c>
@@ -66026,7 +66025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="2:4">
       <c r="B262" s="1" t="s">
         <v>4</v>
       </c>
@@ -66037,7 +66036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="2:4">
       <c r="B263" s="1" t="s">
         <v>355</v>
       </c>
@@ -66048,7 +66047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="2:4">
       <c r="B264" s="1" t="s">
         <v>457</v>
       </c>
@@ -66059,7 +66058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="2:4">
       <c r="B265" s="1" t="s">
         <v>411</v>
       </c>
@@ -66070,7 +66069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="2:4">
       <c r="B266" s="1" t="s">
         <v>10</v>
       </c>
@@ -66081,7 +66080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="2:4">
       <c r="B267" s="1" t="s">
         <v>12</v>
       </c>
@@ -66092,7 +66091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="2:4">
       <c r="B268" s="1" t="s">
         <v>11</v>
       </c>
@@ -66103,7 +66102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="2:4">
       <c r="B269" s="1" t="s">
         <v>283</v>
       </c>
@@ -66114,7 +66113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="2:4">
       <c r="B270" s="1" t="s">
         <v>412</v>
       </c>
@@ -66125,7 +66124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="2:4">
       <c r="B271" s="1" t="s">
         <v>320</v>
       </c>
@@ -66136,7 +66135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="2:4">
       <c r="B272" s="1" t="s">
         <v>428</v>
       </c>
@@ -66170,6 +66169,9 @@
       </c>
     </row>
     <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>439</v>
+      </c>
       <c r="B278" t="s">
         <v>443</v>
       </c>
@@ -66269,9 +66271,6 @@
       </c>
     </row>
     <row r="288" spans="1:4">
-      <c r="A288" t="s">
-        <v>439</v>
-      </c>
       <c r="B288" s="1" t="s">
         <v>361</v>
       </c>
@@ -66437,6 +66436,9 @@
       </c>
     </row>
     <row r="306" spans="1:4">
+      <c r="A306" t="s">
+        <v>439</v>
+      </c>
       <c r="B306" t="s">
         <v>443</v>
       </c>
@@ -66547,9 +66549,6 @@
       </c>
     </row>
     <row r="317" spans="1:4">
-      <c r="A317" t="s">
-        <v>439</v>
-      </c>
       <c r="B317" s="1" t="s">
         <v>4</v>
       </c>
@@ -66593,7 +66592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="2:4">
+    <row r="321" spans="1:4">
       <c r="B321" s="1" t="s">
         <v>448</v>
       </c>
@@ -66604,7 +66603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="2:4">
+    <row r="322" spans="1:4">
       <c r="B322" s="1" t="s">
         <v>10</v>
       </c>
@@ -66615,7 +66614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="2:4">
+    <row r="323" spans="1:4">
       <c r="B323" s="1" t="s">
         <v>11</v>
       </c>
@@ -66626,7 +66625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="324" spans="2:4">
+    <row r="324" spans="1:4">
       <c r="B324" s="1" t="s">
         <v>283</v>
       </c>
@@ -66637,7 +66636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="2:4">
+    <row r="325" spans="1:4">
       <c r="B325" s="1" t="s">
         <v>412</v>
       </c>
@@ -66648,7 +66647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="2:4">
+    <row r="326" spans="1:4">
       <c r="B326" s="1" t="s">
         <v>320</v>
       </c>
@@ -66659,7 +66658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="2:4">
+    <row r="327" spans="1:4">
       <c r="B327" s="1" t="s">
         <v>428</v>
       </c>
@@ -66670,7 +66669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="2:4">
+    <row r="328" spans="1:4">
       <c r="B328" s="1" t="s">
         <v>6</v>
       </c>
@@ -66681,7 +66680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="2:4">
+    <row r="329" spans="1:4">
       <c r="B329" s="1" t="s">
         <v>403</v>
       </c>
@@ -66692,12 +66691,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="333" spans="2:4">
+    <row r="333" spans="1:4">
+      <c r="A333" t="s">
+        <v>439</v>
+      </c>
       <c r="B333" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="334" spans="2:4">
+    <row r="334" spans="1:4">
       <c r="B334" t="s">
         <v>421</v>
       </c>
@@ -66705,7 +66707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="2:4">
+    <row r="335" spans="1:4">
       <c r="B335" s="1" t="s">
         <v>0</v>
       </c>
@@ -66714,7 +66716,7 @@
       </c>
       <c r="D335" s="1"/>
     </row>
-    <row r="336" spans="2:4">
+    <row r="336" spans="1:4">
       <c r="B336" s="1" t="s">
         <v>3</v>
       </c>
@@ -66725,7 +66727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="2:4">
       <c r="B337" s="1" t="s">
         <v>389</v>
       </c>
@@ -66736,7 +66738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="2:4">
       <c r="B338" s="1" t="s">
         <v>391</v>
       </c>
@@ -66747,7 +66749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="2:4">
       <c r="B339" s="1" t="s">
         <v>367</v>
       </c>
@@ -66758,7 +66760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="2:4">
       <c r="B340" s="1" t="s">
         <v>369</v>
       </c>
@@ -66769,7 +66771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="2:4">
       <c r="B341" s="1" t="s">
         <v>351</v>
       </c>
@@ -66780,7 +66782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="2:4">
       <c r="B342" s="1" t="s">
         <v>353</v>
       </c>
@@ -66791,7 +66793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="2:4">
       <c r="B343" s="1" t="s">
         <v>361</v>
       </c>
@@ -66802,7 +66804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="2:4">
       <c r="B344" s="1" t="s">
         <v>4</v>
       </c>
@@ -66813,10 +66815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
-      <c r="A345" t="s">
-        <v>439</v>
-      </c>
+    <row r="345" spans="2:4">
       <c r="B345" s="1" t="s">
         <v>355</v>
       </c>
@@ -66827,7 +66826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="2:4">
       <c r="B346" s="1" t="s">
         <v>457</v>
       </c>
@@ -66838,7 +66837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="2:4">
       <c r="B347" s="1" t="s">
         <v>411</v>
       </c>
@@ -66849,7 +66848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="2:4">
       <c r="B348" s="1" t="s">
         <v>10</v>
       </c>
@@ -66860,7 +66859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="2:4">
       <c r="B349" s="1" t="s">
         <v>11</v>
       </c>
@@ -66871,7 +66870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="2:4">
       <c r="B350" s="1" t="s">
         <v>12</v>
       </c>
@@ -66882,7 +66881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="2:4">
       <c r="B351" s="1" t="s">
         <v>283</v>
       </c>
@@ -66893,7 +66892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="2:4">
       <c r="B352" s="1" t="s">
         <v>412</v>
       </c>
@@ -66966,10 +66965,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:E355"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A257" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -70372,10 +70371,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:E344"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A241" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -73635,10 +73634,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F368"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A177" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
